--- a/Main Website/media/IDFC_HL/FOS Salary/MASTER_FILE_IDFC_HL.xlsx
+++ b/Main Website/media/IDFC_HL/FOS Salary/MASTER_FILE_IDFC_HL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W454"/>
+  <dimension ref="A1:U454"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,16 +539,6 @@
           <t>Billing PAID AMT.</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENTAGE</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>PAYOUT</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -634,14 +624,6 @@
       <c r="U2" t="n">
         <v>0</v>
       </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -727,14 +709,6 @@
       <c r="U3" t="n">
         <v>165984</v>
       </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W3" t="n">
-        <v>5500</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -820,14 +794,6 @@
       <c r="U4" t="n">
         <v>152250</v>
       </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W4" t="n">
-        <v>5500</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -913,14 +879,6 @@
       <c r="U5" t="n">
         <v>138134</v>
       </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W5" t="n">
-        <v>5500</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1006,14 +964,6 @@
       <c r="U6" t="n">
         <v>25747</v>
       </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W6" t="n">
-        <v>3862.05</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1097,14 +1047,6 @@
       <c r="U7" t="n">
         <v>0</v>
       </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1190,14 +1132,6 @@
       <c r="U8" t="n">
         <v>86292</v>
       </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W8" t="n">
-        <v>5500</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1281,14 +1215,6 @@
       <c r="U9" t="n">
         <v>0</v>
       </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1374,14 +1300,6 @@
       <c r="U10" t="n">
         <v>79891</v>
       </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W10" t="n">
-        <v>5500</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1467,14 +1385,6 @@
       <c r="U11" t="n">
         <v>23020</v>
       </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W11" t="n">
-        <v>3453</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1560,14 +1470,6 @@
       <c r="U12" t="n">
         <v>85315</v>
       </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W12" t="n">
-        <v>5500</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1653,14 +1555,6 @@
       <c r="U13" t="n">
         <v>95629</v>
       </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W13" t="n">
-        <v>5500</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1746,14 +1640,6 @@
       <c r="U14" t="n">
         <v>76673</v>
       </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W14" t="n">
-        <v>5500</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1839,14 +1725,6 @@
       <c r="U15" t="n">
         <v>67317</v>
       </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W15" t="n">
-        <v>5500</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1932,14 +1810,6 @@
       <c r="U16" t="n">
         <v>87275</v>
       </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W16" t="n">
-        <v>5500</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2025,14 +1895,6 @@
       <c r="U17" t="n">
         <v>73253</v>
       </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W17" t="n">
-        <v>5500</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2118,14 +1980,6 @@
       <c r="U18" t="n">
         <v>17479</v>
       </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W18" t="n">
-        <v>2621.85</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2211,14 +2065,6 @@
       <c r="U19" t="n">
         <v>9019</v>
       </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W19" t="n">
-        <v>1352.85</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2304,14 +2150,6 @@
       <c r="U20" t="n">
         <v>50944</v>
       </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W20" t="n">
-        <v>5500</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2397,14 +2235,6 @@
       <c r="U21" t="n">
         <v>50323</v>
       </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W21" t="n">
-        <v>5500</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2490,14 +2320,6 @@
       <c r="U22" t="n">
         <v>47375</v>
       </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W22" t="n">
-        <v>5500</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2583,14 +2405,6 @@
       <c r="U23" t="n">
         <v>44345</v>
       </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W23" t="n">
-        <v>5500</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2676,14 +2490,6 @@
       <c r="U24" t="n">
         <v>42847</v>
       </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W24" t="n">
-        <v>5500</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2769,14 +2575,6 @@
       <c r="U25" t="n">
         <v>41653</v>
       </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W25" t="n">
-        <v>5500</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2862,14 +2660,6 @@
       <c r="U26" t="n">
         <v>42461</v>
       </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W26" t="n">
-        <v>5500</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2955,14 +2745,6 @@
       <c r="U27" t="n">
         <v>35227</v>
       </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W27" t="n">
-        <v>5284.05</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3048,14 +2830,6 @@
       <c r="U28" t="n">
         <v>17033</v>
       </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W28" t="n">
-        <v>2554.95</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3141,14 +2915,6 @@
       <c r="U29" t="n">
         <v>42000</v>
       </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W29" t="n">
-        <v>5500</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3234,14 +3000,6 @@
       <c r="U30" t="n">
         <v>36549</v>
       </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W30" t="n">
-        <v>5482.35</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3327,14 +3085,6 @@
       <c r="U31" t="n">
         <v>34741</v>
       </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W31" t="n">
-        <v>5211.15</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3420,14 +3170,6 @@
       <c r="U32" t="n">
         <v>27596</v>
       </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W32" t="n">
-        <v>4139.4</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3513,14 +3255,6 @@
       <c r="U33" t="n">
         <v>32250</v>
       </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W33" t="n">
-        <v>4837.5</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3606,14 +3340,6 @@
       <c r="U34" t="n">
         <v>7395</v>
       </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W34" t="n">
-        <v>1109.25</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3697,14 +3423,6 @@
       <c r="U35" t="n">
         <v>0</v>
       </c>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3790,14 +3508,6 @@
       <c r="U36" t="n">
         <v>4831</v>
       </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W36" t="n">
-        <v>724.65</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3883,14 +3593,6 @@
       <c r="U37" t="n">
         <v>29121</v>
       </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W37" t="n">
-        <v>4368.15</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3976,14 +3678,6 @@
       <c r="U38" t="n">
         <v>17043</v>
       </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W38" t="n">
-        <v>2556.45</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4069,14 +3763,6 @@
       <c r="U39" t="n">
         <v>15615</v>
       </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W39" t="n">
-        <v>2342.25</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4162,14 +3848,6 @@
       <c r="U40" t="n">
         <v>30762</v>
       </c>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W40" t="n">
-        <v>4614.3</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4255,14 +3933,6 @@
       <c r="U41" t="n">
         <v>18010</v>
       </c>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W41" t="n">
-        <v>2701.5</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4348,14 +4018,6 @@
       <c r="U42" t="n">
         <v>33959</v>
       </c>
-      <c r="V42" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W42" t="n">
-        <v>5093.85</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4441,14 +4103,6 @@
       <c r="U43" t="n">
         <v>46878</v>
       </c>
-      <c r="V43" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W43" t="n">
-        <v>5500</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4534,14 +4188,6 @@
       <c r="U44" t="n">
         <v>13089</v>
       </c>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W44" t="n">
-        <v>1963.35</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4627,14 +4273,6 @@
       <c r="U45" t="n">
         <v>5852</v>
       </c>
-      <c r="V45" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W45" t="n">
-        <v>877.8</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4720,14 +4358,6 @@
       <c r="U46" t="n">
         <v>2100000</v>
       </c>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="W46" t="n">
-        <v>25000</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4813,14 +4443,6 @@
       <c r="U47" t="n">
         <v>25682</v>
       </c>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W47" t="n">
-        <v>3852.3</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4906,14 +4528,6 @@
       <c r="U48" t="n">
         <v>23836</v>
       </c>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W48" t="n">
-        <v>3575.4</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4999,14 +4613,6 @@
       <c r="U49" t="n">
         <v>23899</v>
       </c>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W49" t="n">
-        <v>3584.85</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5090,14 +4696,6 @@
       <c r="U50" t="n">
         <v>0</v>
       </c>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W50" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5183,14 +4781,6 @@
       <c r="U51" t="n">
         <v>23242</v>
       </c>
-      <c r="V51" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W51" t="n">
-        <v>3486.3</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5276,14 +4866,6 @@
       <c r="U52" t="n">
         <v>0</v>
       </c>
-      <c r="V52" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W52" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5369,14 +4951,6 @@
       <c r="U53" t="n">
         <v>41735</v>
       </c>
-      <c r="V53" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W53" t="n">
-        <v>5500</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5460,14 +5034,6 @@
       <c r="U54" t="n">
         <v>0</v>
       </c>
-      <c r="V54" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W54" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5553,14 +5119,6 @@
       <c r="U55" t="n">
         <v>11562</v>
       </c>
-      <c r="V55" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W55" t="n">
-        <v>1734.3</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5646,14 +5204,6 @@
       <c r="U56" t="n">
         <v>25318</v>
       </c>
-      <c r="V56" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W56" t="n">
-        <v>3797.7</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5739,14 +5289,6 @@
       <c r="U57" t="n">
         <v>12899</v>
       </c>
-      <c r="V57" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W57" t="n">
-        <v>1934.85</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5832,14 +5374,6 @@
       <c r="U58" t="n">
         <v>22875</v>
       </c>
-      <c r="V58" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W58" t="n">
-        <v>3431.25</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5925,14 +5459,6 @@
       <c r="U59" t="n">
         <v>5806</v>
       </c>
-      <c r="V59" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W59" t="n">
-        <v>870.9</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -6018,14 +5544,6 @@
       <c r="U60" t="n">
         <v>23291</v>
       </c>
-      <c r="V60" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W60" t="n">
-        <v>3493.65</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -6111,14 +5629,6 @@
       <c r="U61" t="n">
         <v>25279</v>
       </c>
-      <c r="V61" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W61" t="n">
-        <v>3791.85</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -6204,14 +5714,6 @@
       <c r="U62" t="n">
         <v>37192</v>
       </c>
-      <c r="V62" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W62" t="n">
-        <v>5500</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -6297,14 +5799,6 @@
       <c r="U63" t="n">
         <v>25578</v>
       </c>
-      <c r="V63" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W63" t="n">
-        <v>3836.7</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -6390,14 +5884,6 @@
       <c r="U64" t="n">
         <v>19388</v>
       </c>
-      <c r="V64" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W64" t="n">
-        <v>2908.2</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -6483,14 +5969,6 @@
       <c r="U65" t="n">
         <v>19894</v>
       </c>
-      <c r="V65" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W65" t="n">
-        <v>2984.1</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -6574,14 +6052,6 @@
       <c r="U66" t="n">
         <v>0</v>
       </c>
-      <c r="V66" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W66" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -6667,14 +6137,6 @@
       <c r="U67" t="n">
         <v>10838</v>
       </c>
-      <c r="V67" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W67" t="n">
-        <v>1625.7</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -6760,14 +6222,6 @@
       <c r="U68" t="n">
         <v>18200</v>
       </c>
-      <c r="V68" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W68" t="n">
-        <v>2730</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -6853,14 +6307,6 @@
       <c r="U69" t="n">
         <v>8692</v>
       </c>
-      <c r="V69" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W69" t="n">
-        <v>1303.8</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -6946,14 +6392,6 @@
       <c r="U70" t="n">
         <v>18980</v>
       </c>
-      <c r="V70" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W70" t="n">
-        <v>2847</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -7039,14 +6477,6 @@
       <c r="U71" t="n">
         <v>7953</v>
       </c>
-      <c r="V71" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W71" t="n">
-        <v>1192.95</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -7130,14 +6560,6 @@
       <c r="U72" t="n">
         <v>0</v>
       </c>
-      <c r="V72" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W72" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -7223,14 +6645,6 @@
       <c r="U73" t="n">
         <v>34288</v>
       </c>
-      <c r="V73" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W73" t="n">
-        <v>5143.2</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -7316,14 +6730,6 @@
       <c r="U74" t="n">
         <v>12821</v>
       </c>
-      <c r="V74" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W74" t="n">
-        <v>1923.15</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -7407,14 +6813,6 @@
       <c r="U75" t="n">
         <v>0</v>
       </c>
-      <c r="V75" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W75" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -7500,14 +6898,6 @@
       <c r="U76" t="n">
         <v>6031</v>
       </c>
-      <c r="V76" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W76" t="n">
-        <v>904.65</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -7591,14 +6981,6 @@
       <c r="U77" t="n">
         <v>0</v>
       </c>
-      <c r="V77" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W77" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -7684,14 +7066,6 @@
       <c r="U78" t="n">
         <v>29636</v>
       </c>
-      <c r="V78" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W78" t="n">
-        <v>4445.4</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -7777,14 +7151,6 @@
       <c r="U79" t="n">
         <v>20121</v>
       </c>
-      <c r="V79" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W79" t="n">
-        <v>3018.15</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -7868,14 +7234,6 @@
       <c r="U80" t="n">
         <v>0</v>
       </c>
-      <c r="V80" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W80" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -7961,14 +7319,6 @@
       <c r="U81" t="n">
         <v>7661</v>
       </c>
-      <c r="V81" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W81" t="n">
-        <v>1149.15</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -8054,14 +7404,6 @@
       <c r="U82" t="n">
         <v>36804</v>
       </c>
-      <c r="V82" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W82" t="n">
-        <v>5500</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -8147,14 +7489,6 @@
       <c r="U83" t="n">
         <v>4545</v>
       </c>
-      <c r="V83" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W83" t="n">
-        <v>681.75</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -8240,14 +7574,6 @@
       <c r="U84" t="n">
         <v>12809</v>
       </c>
-      <c r="V84" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W84" t="n">
-        <v>1921.35</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -8333,14 +7659,6 @@
       <c r="U85" t="n">
         <v>12871</v>
       </c>
-      <c r="V85" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W85" t="n">
-        <v>1930.65</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -8426,14 +7744,6 @@
       <c r="U86" t="n">
         <v>10234</v>
       </c>
-      <c r="V86" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W86" t="n">
-        <v>1535.1</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -8519,14 +7829,6 @@
       <c r="U87" t="n">
         <v>12784</v>
       </c>
-      <c r="V87" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W87" t="n">
-        <v>1917.6</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -8612,14 +7914,6 @@
       <c r="U88" t="n">
         <v>2373</v>
       </c>
-      <c r="V88" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W88" t="n">
-        <v>355.95</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -8705,14 +7999,6 @@
       <c r="U89" t="n">
         <v>13755</v>
       </c>
-      <c r="V89" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W89" t="n">
-        <v>2063.25</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -8798,14 +8084,6 @@
       <c r="U90" t="n">
         <v>4439</v>
       </c>
-      <c r="V90" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W90" t="n">
-        <v>665.85</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -8891,14 +8169,6 @@
       <c r="U91" t="n">
         <v>4570</v>
       </c>
-      <c r="V91" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W91" t="n">
-        <v>685.5</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -8984,14 +8254,6 @@
       <c r="U92" t="n">
         <v>71291</v>
       </c>
-      <c r="V92" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W92" t="n">
-        <v>5500</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -9077,14 +8339,6 @@
       <c r="U93" t="n">
         <v>7719</v>
       </c>
-      <c r="V93" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W93" t="n">
-        <v>1157.85</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -9170,14 +8424,6 @@
       <c r="U94" t="n">
         <v>41614</v>
       </c>
-      <c r="V94" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W94" t="n">
-        <v>3537.19</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -9263,14 +8509,6 @@
       <c r="U95" t="n">
         <v>78979</v>
       </c>
-      <c r="V95" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W95" t="n">
-        <v>5500</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -9354,14 +8592,6 @@
       <c r="U96" t="n">
         <v>0</v>
       </c>
-      <c r="V96" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W96" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -9447,14 +8677,6 @@
       <c r="U97" t="n">
         <v>55804</v>
       </c>
-      <c r="V97" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W97" t="n">
-        <v>4743.34</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -9540,14 +8762,6 @@
       <c r="U98" t="n">
         <v>84956</v>
       </c>
-      <c r="V98" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W98" t="n">
-        <v>5500</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -9633,14 +8847,6 @@
       <c r="U99" t="n">
         <v>69463</v>
       </c>
-      <c r="V99" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W99" t="n">
-        <v>5500</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -9726,14 +8932,6 @@
       <c r="U100" t="n">
         <v>44578</v>
       </c>
-      <c r="V100" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W100" t="n">
-        <v>3789.13</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -9817,14 +9015,6 @@
       <c r="U101" t="n">
         <v>0</v>
       </c>
-      <c r="V101" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W101" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -9908,14 +9098,6 @@
       <c r="U102" t="n">
         <v>0</v>
       </c>
-      <c r="V102" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W102" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -10001,14 +9183,6 @@
       <c r="U103" t="n">
         <v>0</v>
       </c>
-      <c r="V103" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W103" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -10094,14 +9268,6 @@
       <c r="U104" t="n">
         <v>52196</v>
       </c>
-      <c r="V104" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W104" t="n">
-        <v>4436.66</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -10187,14 +9353,6 @@
       <c r="U105" t="n">
         <v>36000</v>
       </c>
-      <c r="V105" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W105" t="n">
-        <v>3060</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -10280,14 +9438,6 @@
       <c r="U106" t="n">
         <v>29961</v>
       </c>
-      <c r="V106" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W106" t="n">
-        <v>2546.685</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -10373,14 +9523,6 @@
       <c r="U107" t="n">
         <v>66064</v>
       </c>
-      <c r="V107" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W107" t="n">
-        <v>5615.44</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -10466,14 +9608,6 @@
       <c r="U108" t="n">
         <v>31596</v>
       </c>
-      <c r="V108" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W108" t="n">
-        <v>2685.66</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -10559,14 +9693,6 @@
       <c r="U109" t="n">
         <v>36987</v>
       </c>
-      <c r="V109" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W109" t="n">
-        <v>3143.895</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -10652,14 +9778,6 @@
       <c r="U110" t="n">
         <v>33033</v>
       </c>
-      <c r="V110" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W110" t="n">
-        <v>2807.805</v>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -10745,14 +9863,6 @@
       <c r="U111" t="n">
         <v>31993</v>
       </c>
-      <c r="V111" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W111" t="n">
-        <v>2719.405</v>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -10838,14 +9948,6 @@
       <c r="U112" t="n">
         <v>31993</v>
       </c>
-      <c r="V112" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W112" t="n">
-        <v>2719.405</v>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -10931,14 +10033,6 @@
       <c r="U113" t="n">
         <v>52056</v>
       </c>
-      <c r="V113" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W113" t="n">
-        <v>4424.76</v>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -11022,14 +10116,6 @@
       <c r="U114" t="n">
         <v>0</v>
       </c>
-      <c r="V114" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W114" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -11113,14 +10199,6 @@
       <c r="U115" t="n">
         <v>0</v>
       </c>
-      <c r="V115" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W115" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -11206,14 +10284,6 @@
       <c r="U116" t="n">
         <v>44562</v>
       </c>
-      <c r="V116" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W116" t="n">
-        <v>3787.77</v>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -11299,14 +10369,6 @@
       <c r="U117" t="n">
         <v>42237</v>
       </c>
-      <c r="V117" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W117" t="n">
-        <v>3590.145</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -11392,14 +10454,6 @@
       <c r="U118" t="n">
         <v>0</v>
       </c>
-      <c r="V118" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W118" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -11485,14 +10539,6 @@
       <c r="U119" t="n">
         <v>0</v>
       </c>
-      <c r="V119" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W119" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -11578,14 +10624,6 @@
       <c r="U120" t="n">
         <v>300001</v>
       </c>
-      <c r="V120" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="W120" t="n">
-        <v>12000.04</v>
-      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -11671,14 +10709,6 @@
       <c r="U121" t="n">
         <v>0</v>
       </c>
-      <c r="V121" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W121" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -11764,14 +10794,6 @@
       <c r="U122" t="n">
         <v>26661</v>
       </c>
-      <c r="V122" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W122" t="n">
-        <v>2266.185</v>
-      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -11857,14 +10879,6 @@
       <c r="U123" t="n">
         <v>0</v>
       </c>
-      <c r="V123" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W123" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -11948,14 +10962,6 @@
       <c r="U124" t="n">
         <v>0</v>
       </c>
-      <c r="V124" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W124" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -12041,14 +11047,6 @@
       <c r="U125" t="n">
         <v>81218</v>
       </c>
-      <c r="V125" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W125" t="n">
-        <v>6903.53</v>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -12134,14 +11132,6 @@
       <c r="U126" t="n">
         <v>28280</v>
       </c>
-      <c r="V126" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W126" t="n">
-        <v>2403.8</v>
-      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -12227,14 +11217,6 @@
       <c r="U127" t="n">
         <v>47548</v>
       </c>
-      <c r="V127" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W127" t="n">
-        <v>4041.58</v>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -12320,14 +11302,6 @@
       <c r="U128" t="n">
         <v>24329</v>
       </c>
-      <c r="V128" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W128" t="n">
-        <v>2067.965</v>
-      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -12411,14 +11385,6 @@
       <c r="U129" t="n">
         <v>0</v>
       </c>
-      <c r="V129" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W129" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -12504,14 +11470,6 @@
       <c r="U130" t="n">
         <v>30370</v>
       </c>
-      <c r="V130" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W130" t="n">
-        <v>2581.45</v>
-      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -12595,14 +11553,6 @@
       <c r="U131" t="n">
         <v>0</v>
       </c>
-      <c r="V131" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W131" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -12688,14 +11638,6 @@
       <c r="U132" t="n">
         <v>32000</v>
       </c>
-      <c r="V132" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W132" t="n">
-        <v>2720</v>
-      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -12781,14 +11723,6 @@
       <c r="U133" t="n">
         <v>19716</v>
       </c>
-      <c r="V133" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W133" t="n">
-        <v>1675.86</v>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -12874,14 +11808,6 @@
       <c r="U134" t="n">
         <v>38137</v>
       </c>
-      <c r="V134" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W134" t="n">
-        <v>3241.645</v>
-      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -12965,14 +11891,6 @@
       <c r="U135" t="n">
         <v>0</v>
       </c>
-      <c r="V135" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W135" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -13058,14 +11976,6 @@
       <c r="U136" t="n">
         <v>19176</v>
       </c>
-      <c r="V136" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W136" t="n">
-        <v>1629.96</v>
-      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -13151,14 +12061,6 @@
       <c r="U137" t="n">
         <v>0</v>
       </c>
-      <c r="V137" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W137" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -13244,14 +12146,6 @@
       <c r="U138" t="n">
         <v>21231</v>
       </c>
-      <c r="V138" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W138" t="n">
-        <v>1804.635</v>
-      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -13337,14 +12231,6 @@
       <c r="U139" t="n">
         <v>18376</v>
       </c>
-      <c r="V139" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W139" t="n">
-        <v>1561.96</v>
-      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -13430,14 +12316,6 @@
       <c r="U140" t="n">
         <v>21458</v>
       </c>
-      <c r="V140" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W140" t="n">
-        <v>1823.93</v>
-      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -13523,14 +12401,6 @@
       <c r="U141" t="n">
         <v>25937</v>
       </c>
-      <c r="V141" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W141" t="n">
-        <v>2204.645</v>
-      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -13616,14 +12486,6 @@
       <c r="U142" t="n">
         <v>21329</v>
       </c>
-      <c r="V142" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W142" t="n">
-        <v>1812.965</v>
-      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -13709,14 +12571,6 @@
       <c r="U143" t="n">
         <v>0</v>
       </c>
-      <c r="V143" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W143" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -13802,14 +12656,6 @@
       <c r="U144" t="n">
         <v>1600</v>
       </c>
-      <c r="V144" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W144" t="n">
-        <v>136</v>
-      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -13895,14 +12741,6 @@
       <c r="U145" t="n">
         <v>66304</v>
       </c>
-      <c r="V145" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W145" t="n">
-        <v>5635.84</v>
-      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -13988,14 +12826,6 @@
       <c r="U146" t="n">
         <v>20483</v>
       </c>
-      <c r="V146" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W146" t="n">
-        <v>1741.055</v>
-      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -14081,14 +12911,6 @@
       <c r="U147" t="n">
         <v>21244</v>
       </c>
-      <c r="V147" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W147" t="n">
-        <v>1805.74</v>
-      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -14174,14 +12996,6 @@
       <c r="U148" t="n">
         <v>40010</v>
       </c>
-      <c r="V148" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W148" t="n">
-        <v>3400.85</v>
-      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -14267,14 +13081,6 @@
       <c r="U149" t="n">
         <v>19196</v>
       </c>
-      <c r="V149" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W149" t="n">
-        <v>1631.66</v>
-      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -14360,14 +13166,6 @@
       <c r="U150" t="n">
         <v>38613</v>
       </c>
-      <c r="V150" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W150" t="n">
-        <v>3282.105</v>
-      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -14453,14 +13251,6 @@
       <c r="U151" t="n">
         <v>20962</v>
       </c>
-      <c r="V151" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W151" t="n">
-        <v>1781.77</v>
-      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -14546,14 +13336,6 @@
       <c r="U152" t="n">
         <v>0</v>
       </c>
-      <c r="V152" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W152" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -14639,14 +13421,6 @@
       <c r="U153" t="n">
         <v>9532</v>
       </c>
-      <c r="V153" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W153" t="n">
-        <v>810.22</v>
-      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -14732,14 +13506,6 @@
       <c r="U154" t="n">
         <v>0</v>
       </c>
-      <c r="V154" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W154" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -14825,14 +13591,6 @@
       <c r="U155" t="n">
         <v>27517</v>
       </c>
-      <c r="V155" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W155" t="n">
-        <v>2338.945</v>
-      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -14918,14 +13676,6 @@
       <c r="U156" t="n">
         <v>0</v>
       </c>
-      <c r="V156" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W156" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -15011,14 +13761,6 @@
       <c r="U157" t="n">
         <v>15923</v>
       </c>
-      <c r="V157" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W157" t="n">
-        <v>1353.455</v>
-      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -15102,14 +13844,6 @@
       <c r="U158" t="n">
         <v>0</v>
       </c>
-      <c r="V158" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W158" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -15193,14 +13927,6 @@
       <c r="U159" t="n">
         <v>0</v>
       </c>
-      <c r="V159" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W159" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -15286,14 +14012,6 @@
       <c r="U160" t="n">
         <v>24971</v>
       </c>
-      <c r="V160" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W160" t="n">
-        <v>2122.535</v>
-      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -15379,14 +14097,6 @@
       <c r="U161" t="n">
         <v>19069</v>
       </c>
-      <c r="V161" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W161" t="n">
-        <v>1620.865</v>
-      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -15470,14 +14180,6 @@
       <c r="U162" t="n">
         <v>0</v>
       </c>
-      <c r="V162" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W162" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -15563,14 +14265,6 @@
       <c r="U163" t="n">
         <v>15716</v>
       </c>
-      <c r="V163" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W163" t="n">
-        <v>1335.86</v>
-      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -15656,14 +14350,6 @@
       <c r="U164" t="n">
         <v>16581</v>
       </c>
-      <c r="V164" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W164" t="n">
-        <v>1409.385</v>
-      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -15749,14 +14435,6 @@
       <c r="U165" t="n">
         <v>15182</v>
       </c>
-      <c r="V165" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W165" t="n">
-        <v>1290.47</v>
-      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -15842,14 +14520,6 @@
       <c r="U166" t="n">
         <v>0</v>
       </c>
-      <c r="V166" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W166" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -15935,14 +14605,6 @@
       <c r="U167" t="n">
         <v>14848</v>
       </c>
-      <c r="V167" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W167" t="n">
-        <v>1262.08</v>
-      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -16028,14 +14690,6 @@
       <c r="U168" t="n">
         <v>0</v>
       </c>
-      <c r="V168" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W168" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -16121,14 +14775,6 @@
       <c r="U169" t="n">
         <v>15997</v>
       </c>
-      <c r="V169" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W169" t="n">
-        <v>1359.745</v>
-      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -16214,14 +14860,6 @@
       <c r="U170" t="n">
         <v>38086</v>
       </c>
-      <c r="V170" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W170" t="n">
-        <v>3237.31</v>
-      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -16307,14 +14945,6 @@
       <c r="U171" t="n">
         <v>30820</v>
       </c>
-      <c r="V171" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W171" t="n">
-        <v>2619.7</v>
-      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -16400,14 +15030,6 @@
       <c r="U172" t="n">
         <v>14810</v>
       </c>
-      <c r="V172" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W172" t="n">
-        <v>1258.85</v>
-      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -16493,14 +15115,6 @@
       <c r="U173" t="n">
         <v>16058</v>
       </c>
-      <c r="V173" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W173" t="n">
-        <v>1364.93</v>
-      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -16586,14 +15200,6 @@
       <c r="U174" t="n">
         <v>13994</v>
       </c>
-      <c r="V174" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W174" t="n">
-        <v>1189.49</v>
-      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -16679,14 +15285,6 @@
       <c r="U175" t="n">
         <v>15739</v>
       </c>
-      <c r="V175" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W175" t="n">
-        <v>1337.815</v>
-      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -16770,14 +15368,6 @@
       <c r="U176" t="n">
         <v>0</v>
       </c>
-      <c r="V176" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W176" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -16863,14 +15453,6 @@
       <c r="U177" t="n">
         <v>30454</v>
       </c>
-      <c r="V177" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W177" t="n">
-        <v>2588.59</v>
-      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -16956,14 +15538,6 @@
       <c r="U178" t="n">
         <v>28285</v>
       </c>
-      <c r="V178" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W178" t="n">
-        <v>2404.225</v>
-      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -17049,14 +15623,6 @@
       <c r="U179" t="n">
         <v>21148</v>
       </c>
-      <c r="V179" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W179" t="n">
-        <v>1797.58</v>
-      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -17142,14 +15708,6 @@
       <c r="U180" t="n">
         <v>30252</v>
       </c>
-      <c r="V180" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W180" t="n">
-        <v>2571.42</v>
-      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -17235,14 +15793,6 @@
       <c r="U181" t="n">
         <v>0</v>
       </c>
-      <c r="V181" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W181" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -17328,14 +15878,6 @@
       <c r="U182" t="n">
         <v>11874</v>
       </c>
-      <c r="V182" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W182" t="n">
-        <v>1009.29</v>
-      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -17421,14 +15963,6 @@
       <c r="U183" t="n">
         <v>17525</v>
       </c>
-      <c r="V183" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W183" t="n">
-        <v>1489.625</v>
-      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -17514,14 +16048,6 @@
       <c r="U184" t="n">
         <v>18284</v>
       </c>
-      <c r="V184" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W184" t="n">
-        <v>1554.14</v>
-      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -17607,14 +16133,6 @@
       <c r="U185" t="n">
         <v>11283</v>
       </c>
-      <c r="V185" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W185" t="n">
-        <v>959.0549999999999</v>
-      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -17700,14 +16218,6 @@
       <c r="U186" t="n">
         <v>39084</v>
       </c>
-      <c r="V186" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W186" t="n">
-        <v>3322.14</v>
-      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -17793,14 +16303,6 @@
       <c r="U187" t="n">
         <v>13942</v>
       </c>
-      <c r="V187" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W187" t="n">
-        <v>1185.07</v>
-      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -17886,14 +16388,6 @@
       <c r="U188" t="n">
         <v>12798</v>
       </c>
-      <c r="V188" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W188" t="n">
-        <v>1087.83</v>
-      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -17979,14 +16473,6 @@
       <c r="U189" t="n">
         <v>20798</v>
       </c>
-      <c r="V189" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W189" t="n">
-        <v>1767.83</v>
-      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -18072,14 +16558,6 @@
       <c r="U190" t="n">
         <v>23860</v>
       </c>
-      <c r="V190" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W190" t="n">
-        <v>2028.1</v>
-      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -18165,14 +16643,6 @@
       <c r="U191" t="n">
         <v>21053</v>
       </c>
-      <c r="V191" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W191" t="n">
-        <v>1789.505</v>
-      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -18258,14 +16728,6 @@
       <c r="U192" t="n">
         <v>12798</v>
       </c>
-      <c r="V192" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W192" t="n">
-        <v>1087.83</v>
-      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -18349,14 +16811,6 @@
       <c r="U193" t="n">
         <v>0</v>
       </c>
-      <c r="V193" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W193" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -18442,14 +16896,6 @@
       <c r="U194" t="n">
         <v>13765</v>
       </c>
-      <c r="V194" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W194" t="n">
-        <v>1170.025</v>
-      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -18533,14 +16979,6 @@
       <c r="U195" t="n">
         <v>0</v>
       </c>
-      <c r="V195" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W195" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -18626,14 +17064,6 @@
       <c r="U196" t="n">
         <v>28307</v>
       </c>
-      <c r="V196" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W196" t="n">
-        <v>2406.095</v>
-      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -18719,14 +17149,6 @@
       <c r="U197" t="n">
         <v>11570</v>
       </c>
-      <c r="V197" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W197" t="n">
-        <v>983.45</v>
-      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -18812,14 +17234,6 @@
       <c r="U198" t="n">
         <v>2599</v>
       </c>
-      <c r="V198" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W198" t="n">
-        <v>220.915</v>
-      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -18905,14 +17319,6 @@
       <c r="U199" t="n">
         <v>17405</v>
       </c>
-      <c r="V199" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W199" t="n">
-        <v>1479.425</v>
-      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -18998,14 +17404,6 @@
       <c r="U200" t="n">
         <v>11705</v>
       </c>
-      <c r="V200" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W200" t="n">
-        <v>994.925</v>
-      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -19091,14 +17489,6 @@
       <c r="U201" t="n">
         <v>17225</v>
       </c>
-      <c r="V201" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W201" t="n">
-        <v>1464.125</v>
-      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -19184,14 +17574,6 @@
       <c r="U202" t="n">
         <v>0</v>
       </c>
-      <c r="V202" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W202" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -19277,14 +17659,6 @@
       <c r="U203" t="n">
         <v>0</v>
       </c>
-      <c r="V203" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W203" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -19370,14 +17744,6 @@
       <c r="U204" t="n">
         <v>10556</v>
       </c>
-      <c r="V204" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W204" t="n">
-        <v>897.26</v>
-      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -19463,14 +17829,6 @@
       <c r="U205" t="n">
         <v>11362</v>
       </c>
-      <c r="V205" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W205" t="n">
-        <v>965.77</v>
-      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -19556,14 +17914,6 @@
       <c r="U206" t="n">
         <v>15500</v>
       </c>
-      <c r="V206" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W206" t="n">
-        <v>1317.5</v>
-      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -19649,14 +17999,6 @@
       <c r="U207" t="n">
         <v>10999</v>
       </c>
-      <c r="V207" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W207" t="n">
-        <v>934.915</v>
-      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -19742,14 +18084,6 @@
       <c r="U208" t="n">
         <v>900</v>
       </c>
-      <c r="V208" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W208" t="n">
-        <v>76.5</v>
-      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -19835,14 +18169,6 @@
       <c r="U209" t="n">
         <v>19545</v>
       </c>
-      <c r="V209" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W209" t="n">
-        <v>1661.325</v>
-      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -19928,14 +18254,6 @@
       <c r="U210" t="n">
         <v>11412</v>
       </c>
-      <c r="V210" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W210" t="n">
-        <v>970.02</v>
-      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -20021,14 +18339,6 @@
       <c r="U211" t="n">
         <v>19297</v>
       </c>
-      <c r="V211" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W211" t="n">
-        <v>1640.245</v>
-      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -20114,14 +18424,6 @@
       <c r="U212" t="n">
         <v>0</v>
       </c>
-      <c r="V212" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W212" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -20205,14 +18507,6 @@
       <c r="U213" t="n">
         <v>0</v>
       </c>
-      <c r="V213" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W213" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -20298,14 +18592,6 @@
       <c r="U214" t="n">
         <v>9651</v>
       </c>
-      <c r="V214" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W214" t="n">
-        <v>820.335</v>
-      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -20391,14 +18677,6 @@
       <c r="U215" t="n">
         <v>11021</v>
       </c>
-      <c r="V215" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W215" t="n">
-        <v>936.785</v>
-      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -20484,14 +18762,6 @@
       <c r="U216" t="n">
         <v>9884</v>
       </c>
-      <c r="V216" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W216" t="n">
-        <v>840.14</v>
-      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -20577,14 +18847,6 @@
       <c r="U217" t="n">
         <v>11104</v>
       </c>
-      <c r="V217" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W217" t="n">
-        <v>943.84</v>
-      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -20670,14 +18932,6 @@
       <c r="U218" t="n">
         <v>20370</v>
       </c>
-      <c r="V218" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W218" t="n">
-        <v>1731.45</v>
-      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -20763,14 +19017,6 @@
       <c r="U219" t="n">
         <v>9322</v>
       </c>
-      <c r="V219" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W219" t="n">
-        <v>792.37</v>
-      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -20856,14 +19102,6 @@
       <c r="U220" t="n">
         <v>17698</v>
       </c>
-      <c r="V220" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W220" t="n">
-        <v>1504.33</v>
-      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -20949,14 +19187,6 @@
       <c r="U221" t="n">
         <v>21609</v>
       </c>
-      <c r="V221" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W221" t="n">
-        <v>1836.765</v>
-      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -21042,14 +19272,6 @@
       <c r="U222" t="n">
         <v>15989</v>
       </c>
-      <c r="V222" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W222" t="n">
-        <v>1359.065</v>
-      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -21135,14 +19357,6 @@
       <c r="U223" t="n">
         <v>0</v>
       </c>
-      <c r="V223" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W223" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -21228,14 +19442,6 @@
       <c r="U224" t="n">
         <v>29979</v>
       </c>
-      <c r="V224" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W224" t="n">
-        <v>2548.215</v>
-      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -21321,14 +19527,6 @@
       <c r="U225" t="n">
         <v>21997</v>
       </c>
-      <c r="V225" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W225" t="n">
-        <v>1869.745</v>
-      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -21414,14 +19612,6 @@
       <c r="U226" t="n">
         <v>9910</v>
       </c>
-      <c r="V226" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W226" t="n">
-        <v>842.35</v>
-      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -21507,14 +19697,6 @@
       <c r="U227" t="n">
         <v>17208</v>
       </c>
-      <c r="V227" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W227" t="n">
-        <v>1462.68</v>
-      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -21600,14 +19782,6 @@
       <c r="U228" t="n">
         <v>23500</v>
       </c>
-      <c r="V228" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W228" t="n">
-        <v>1997.5</v>
-      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -21693,14 +19867,6 @@
       <c r="U229" t="n">
         <v>0</v>
       </c>
-      <c r="V229" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W229" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -21786,14 +19952,6 @@
       <c r="U230" t="n">
         <v>9549</v>
       </c>
-      <c r="V230" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W230" t="n">
-        <v>811.665</v>
-      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -21879,14 +20037,6 @@
       <c r="U231" t="n">
         <v>0</v>
       </c>
-      <c r="V231" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W231" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -21972,14 +20122,6 @@
       <c r="U232" t="n">
         <v>13999</v>
       </c>
-      <c r="V232" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W232" t="n">
-        <v>1189.915</v>
-      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -22065,14 +20207,6 @@
       <c r="U233" t="n">
         <v>9534</v>
       </c>
-      <c r="V233" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W233" t="n">
-        <v>810.39</v>
-      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -22158,14 +20292,6 @@
       <c r="U234" t="n">
         <v>0</v>
       </c>
-      <c r="V234" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W234" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -22251,14 +20377,6 @@
       <c r="U235" t="n">
         <v>14001</v>
       </c>
-      <c r="V235" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W235" t="n">
-        <v>1190.085</v>
-      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -22344,14 +20462,6 @@
       <c r="U236" t="n">
         <v>13348</v>
       </c>
-      <c r="V236" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W236" t="n">
-        <v>1134.58</v>
-      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -22437,14 +20547,6 @@
       <c r="U237" t="n">
         <v>8783</v>
       </c>
-      <c r="V237" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W237" t="n">
-        <v>746.5549999999999</v>
-      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -22530,14 +20632,6 @@
       <c r="U238" t="n">
         <v>21500</v>
       </c>
-      <c r="V238" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="W238" t="n">
-        <v>860</v>
-      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -22623,14 +20717,6 @@
       <c r="U239" t="n">
         <v>0</v>
       </c>
-      <c r="V239" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W239" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -22716,14 +20802,6 @@
       <c r="U240" t="n">
         <v>7155</v>
       </c>
-      <c r="V240" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W240" t="n">
-        <v>608.175</v>
-      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -22809,14 +20887,6 @@
       <c r="U241" t="n">
         <v>0</v>
       </c>
-      <c r="V241" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W241" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -22902,14 +20972,6 @@
       <c r="U242" t="n">
         <v>0</v>
       </c>
-      <c r="V242" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W242" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -22995,14 +21057,6 @@
       <c r="U243" t="n">
         <v>38326</v>
       </c>
-      <c r="V243" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W243" t="n">
-        <v>3257.71</v>
-      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -23088,14 +21142,6 @@
       <c r="U244" t="n">
         <v>22257</v>
       </c>
-      <c r="V244" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W244" t="n">
-        <v>1891.845</v>
-      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -23181,14 +21227,6 @@
       <c r="U245" t="n">
         <v>12000</v>
       </c>
-      <c r="V245" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W245" t="n">
-        <v>1020</v>
-      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -23274,14 +21312,6 @@
       <c r="U246" t="n">
         <v>6497</v>
       </c>
-      <c r="V246" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W246" t="n">
-        <v>552.245</v>
-      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -23367,14 +21397,6 @@
       <c r="U247" t="n">
         <v>11697</v>
       </c>
-      <c r="V247" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W247" t="n">
-        <v>994.245</v>
-      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -23460,14 +21482,6 @@
       <c r="U248" t="n">
         <v>11130</v>
       </c>
-      <c r="V248" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W248" t="n">
-        <v>946.05</v>
-      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -23553,14 +21567,6 @@
       <c r="U249" t="n">
         <v>0</v>
       </c>
-      <c r="V249" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W249" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -23646,14 +21652,6 @@
       <c r="U250" t="n">
         <v>5308</v>
       </c>
-      <c r="V250" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W250" t="n">
-        <v>451.18</v>
-      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -23739,14 +21737,6 @@
       <c r="U251" t="n">
         <v>0</v>
       </c>
-      <c r="V251" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W251" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -23832,14 +21822,6 @@
       <c r="U252" t="n">
         <v>0</v>
       </c>
-      <c r="V252" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W252" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -23925,14 +21907,6 @@
       <c r="U253" t="n">
         <v>10920</v>
       </c>
-      <c r="V253" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W253" t="n">
-        <v>928.2</v>
-      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -24016,14 +21990,6 @@
       <c r="U254" t="n">
         <v>0</v>
       </c>
-      <c r="V254" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W254" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -24109,14 +22075,6 @@
       <c r="U255" t="n">
         <v>0</v>
       </c>
-      <c r="V255" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W255" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -24202,14 +22160,6 @@
       <c r="U256" t="n">
         <v>10477</v>
       </c>
-      <c r="V256" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W256" t="n">
-        <v>890.545</v>
-      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -24295,14 +22245,6 @@
       <c r="U257" t="n">
         <v>0</v>
       </c>
-      <c r="V257" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W257" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -24388,14 +22330,6 @@
       <c r="U258" t="n">
         <v>0</v>
       </c>
-      <c r="V258" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W258" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -24479,14 +22413,6 @@
       <c r="U259" t="n">
         <v>0</v>
       </c>
-      <c r="V259" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W259" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -24572,14 +22498,6 @@
       <c r="U260" t="n">
         <v>11471</v>
       </c>
-      <c r="V260" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W260" t="n">
-        <v>975.035</v>
-      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -24665,14 +22583,6 @@
       <c r="U261" t="n">
         <v>5683</v>
       </c>
-      <c r="V261" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W261" t="n">
-        <v>483.055</v>
-      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -24758,14 +22668,6 @@
       <c r="U262" t="n">
         <v>300001</v>
       </c>
-      <c r="V262" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="W262" t="n">
-        <v>12000.04</v>
-      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -24851,14 +22753,6 @@
       <c r="U263" t="n">
         <v>7998</v>
       </c>
-      <c r="V263" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W263" t="n">
-        <v>679.83</v>
-      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -24944,14 +22838,6 @@
       <c r="U264" t="n">
         <v>13750</v>
       </c>
-      <c r="V264" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W264" t="n">
-        <v>1168.75</v>
-      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -25035,14 +22921,6 @@
       <c r="U265" t="n">
         <v>0</v>
       </c>
-      <c r="V265" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W265" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -25128,14 +23006,6 @@
       <c r="U266" t="n">
         <v>2050</v>
       </c>
-      <c r="V266" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W266" t="n">
-        <v>174.25</v>
-      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -25221,14 +23091,6 @@
       <c r="U267" t="n">
         <v>13121</v>
       </c>
-      <c r="V267" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W267" t="n">
-        <v>1115.285</v>
-      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -25314,14 +23176,6 @@
       <c r="U268" t="n">
         <v>0</v>
       </c>
-      <c r="V268" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W268" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -25405,14 +23259,6 @@
       <c r="U269" t="n">
         <v>0</v>
       </c>
-      <c r="V269" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W269" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -25498,14 +23344,6 @@
       <c r="U270" t="n">
         <v>1165</v>
       </c>
-      <c r="V270" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W270" t="n">
-        <v>99.02500000000001</v>
-      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -25591,14 +23429,6 @@
       <c r="U271" t="n">
         <v>1669</v>
       </c>
-      <c r="V271" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W271" t="n">
-        <v>141.865</v>
-      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -25684,14 +23514,6 @@
       <c r="U272" t="n">
         <v>1837</v>
       </c>
-      <c r="V272" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W272" t="n">
-        <v>156.145</v>
-      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -25775,14 +23597,6 @@
       <c r="U273" t="n">
         <v>0</v>
       </c>
-      <c r="V273" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W273" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -25866,14 +23680,6 @@
       <c r="U274" t="n">
         <v>0</v>
       </c>
-      <c r="V274" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W274" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -25957,14 +23763,6 @@
       <c r="U275" t="n">
         <v>0</v>
       </c>
-      <c r="V275" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W275" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -26048,14 +23846,6 @@
       <c r="U276" t="n">
         <v>0</v>
       </c>
-      <c r="V276" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W276" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -26139,14 +23929,6 @@
       <c r="U277" t="n">
         <v>0</v>
       </c>
-      <c r="V277" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W277" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -26230,14 +24012,6 @@
       <c r="U278" t="n">
         <v>0</v>
       </c>
-      <c r="V278" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W278" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -26321,14 +24095,6 @@
       <c r="U279" t="n">
         <v>0</v>
       </c>
-      <c r="V279" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W279" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -26412,14 +24178,6 @@
       <c r="U280" t="n">
         <v>0</v>
       </c>
-      <c r="V280" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W280" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -26503,14 +24261,6 @@
       <c r="U281" t="n">
         <v>0</v>
       </c>
-      <c r="V281" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W281" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -26594,14 +24344,6 @@
       <c r="U282" t="n">
         <v>0</v>
       </c>
-      <c r="V282" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W282" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -26685,14 +24427,6 @@
       <c r="U283" t="n">
         <v>0</v>
       </c>
-      <c r="V283" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W283" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -26776,14 +24510,6 @@
       <c r="U284" t="n">
         <v>0</v>
       </c>
-      <c r="V284" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W284" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -26867,14 +24593,6 @@
       <c r="U285" t="n">
         <v>0</v>
       </c>
-      <c r="V285" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W285" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -26958,14 +24676,6 @@
       <c r="U286" t="n">
         <v>0</v>
       </c>
-      <c r="V286" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W286" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -27049,14 +24759,6 @@
       <c r="U287" t="n">
         <v>0</v>
       </c>
-      <c r="V287" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W287" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -27140,14 +24842,6 @@
       <c r="U288" t="n">
         <v>0</v>
       </c>
-      <c r="V288" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W288" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -27231,14 +24925,6 @@
       <c r="U289" t="n">
         <v>0</v>
       </c>
-      <c r="V289" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W289" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -27322,14 +25008,6 @@
       <c r="U290" t="n">
         <v>0</v>
       </c>
-      <c r="V290" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W290" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -27413,14 +25091,6 @@
       <c r="U291" t="n">
         <v>0</v>
       </c>
-      <c r="V291" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W291" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -27504,14 +25174,6 @@
       <c r="U292" t="n">
         <v>0</v>
       </c>
-      <c r="V292" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W292" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -27595,14 +25257,6 @@
       <c r="U293" t="n">
         <v>0</v>
       </c>
-      <c r="V293" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W293" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -27686,14 +25340,6 @@
       <c r="U294" t="n">
         <v>0</v>
       </c>
-      <c r="V294" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W294" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -27777,14 +25423,6 @@
       <c r="U295" t="n">
         <v>0</v>
       </c>
-      <c r="V295" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W295" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -27868,14 +25506,6 @@
       <c r="U296" t="n">
         <v>0</v>
       </c>
-      <c r="V296" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W296" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -27959,14 +25589,6 @@
       <c r="U297" t="n">
         <v>0</v>
       </c>
-      <c r="V297" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W297" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -28050,14 +25672,6 @@
       <c r="U298" t="n">
         <v>0</v>
       </c>
-      <c r="V298" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W298" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -28143,14 +25757,6 @@
       <c r="U299" t="n">
         <v>436564</v>
       </c>
-      <c r="V299" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W299" t="n">
-        <v>5500</v>
-      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -28236,14 +25842,6 @@
       <c r="U300" t="n">
         <v>83363</v>
       </c>
-      <c r="V300" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W300" t="n">
-        <v>5500</v>
-      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -28329,14 +25927,6 @@
       <c r="U301" t="n">
         <v>27321</v>
       </c>
-      <c r="V301" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W301" t="n">
-        <v>4098.15</v>
-      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -28422,14 +26012,6 @@
       <c r="U302" t="n">
         <v>37286</v>
       </c>
-      <c r="V302" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W302" t="n">
-        <v>5500</v>
-      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -28515,14 +26097,6 @@
       <c r="U303" t="n">
         <v>33657</v>
       </c>
-      <c r="V303" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W303" t="n">
-        <v>5048.55</v>
-      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -28608,14 +26182,6 @@
       <c r="U304" t="n">
         <v>35888</v>
       </c>
-      <c r="V304" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W304" t="n">
-        <v>5383.2</v>
-      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -28701,14 +26267,6 @@
       <c r="U305" t="n">
         <v>34060</v>
       </c>
-      <c r="V305" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W305" t="n">
-        <v>5109</v>
-      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -28794,14 +26352,6 @@
       <c r="U306" t="n">
         <v>25705</v>
       </c>
-      <c r="V306" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W306" t="n">
-        <v>3855.75</v>
-      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -28887,14 +26437,6 @@
       <c r="U307" t="n">
         <v>34390</v>
       </c>
-      <c r="V307" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W307" t="n">
-        <v>5158.5</v>
-      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -28978,14 +26520,6 @@
       <c r="U308" t="n">
         <v>0</v>
       </c>
-      <c r="V308" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W308" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -29071,14 +26605,6 @@
       <c r="U309" t="n">
         <v>32572</v>
       </c>
-      <c r="V309" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W309" t="n">
-        <v>4885.8</v>
-      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -29162,14 +26688,6 @@
       <c r="U310" t="n">
         <v>0</v>
       </c>
-      <c r="V310" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W310" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -29255,14 +26773,6 @@
       <c r="U311" t="n">
         <v>16834</v>
       </c>
-      <c r="V311" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W311" t="n">
-        <v>2525.1</v>
-      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -29348,14 +26858,6 @@
       <c r="U312" t="n">
         <v>0</v>
       </c>
-      <c r="V312" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W312" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -29441,14 +26943,6 @@
       <c r="U313" t="n">
         <v>0</v>
       </c>
-      <c r="V313" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W313" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -29534,14 +27028,6 @@
       <c r="U314" t="n">
         <v>22188</v>
       </c>
-      <c r="V314" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W314" t="n">
-        <v>3328.2</v>
-      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -29627,14 +27113,6 @@
       <c r="U315" t="n">
         <v>8435</v>
       </c>
-      <c r="V315" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W315" t="n">
-        <v>1265.25</v>
-      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -29720,14 +27198,6 @@
       <c r="U316" t="n">
         <v>35046</v>
       </c>
-      <c r="V316" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W316" t="n">
-        <v>5256.9</v>
-      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -29813,14 +27283,6 @@
       <c r="U317" t="n">
         <v>20584</v>
       </c>
-      <c r="V317" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W317" t="n">
-        <v>3087.6</v>
-      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -29906,14 +27368,6 @@
       <c r="U318" t="n">
         <v>22547</v>
       </c>
-      <c r="V318" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W318" t="n">
-        <v>3382.05</v>
-      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -29999,14 +27453,6 @@
       <c r="U319" t="n">
         <v>19830</v>
       </c>
-      <c r="V319" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W319" t="n">
-        <v>2974.5</v>
-      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -30090,14 +27536,6 @@
       <c r="U320" t="n">
         <v>0</v>
       </c>
-      <c r="V320" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W320" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -30181,14 +27619,6 @@
       <c r="U321" t="n">
         <v>0</v>
       </c>
-      <c r="V321" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W321" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -30274,14 +27704,6 @@
       <c r="U322" t="n">
         <v>4679</v>
       </c>
-      <c r="V322" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W322" t="n">
-        <v>701.85</v>
-      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -30367,14 +27789,6 @@
       <c r="U323" t="n">
         <v>0</v>
       </c>
-      <c r="V323" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W323" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -30460,14 +27874,6 @@
       <c r="U324" t="n">
         <v>8158</v>
       </c>
-      <c r="V324" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W324" t="n">
-        <v>1223.7</v>
-      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -30553,14 +27959,6 @@
       <c r="U325" t="n">
         <v>12659</v>
       </c>
-      <c r="V325" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W325" t="n">
-        <v>1898.85</v>
-      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -30646,14 +28044,6 @@
       <c r="U326" t="n">
         <v>6445</v>
       </c>
-      <c r="V326" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W326" t="n">
-        <v>966.75</v>
-      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -30739,14 +28129,6 @@
       <c r="U327" t="n">
         <v>65325</v>
       </c>
-      <c r="V327" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W327" t="n">
-        <v>5500</v>
-      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -30832,14 +28214,6 @@
       <c r="U328" t="n">
         <v>14441</v>
       </c>
-      <c r="V328" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W328" t="n">
-        <v>2166.15</v>
-      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -30925,14 +28299,6 @@
       <c r="U329" t="n">
         <v>68732</v>
       </c>
-      <c r="V329" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W329" t="n">
-        <v>5500</v>
-      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -31018,14 +28384,6 @@
       <c r="U330" t="n">
         <v>11418</v>
       </c>
-      <c r="V330" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W330" t="n">
-        <v>1712.7</v>
-      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -31111,14 +28469,6 @@
       <c r="U331" t="n">
         <v>46205</v>
       </c>
-      <c r="V331" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W331" t="n">
-        <v>5500</v>
-      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -31204,14 +28554,6 @@
       <c r="U332" t="n">
         <v>31976</v>
       </c>
-      <c r="V332" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W332" t="n">
-        <v>4796.4</v>
-      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -31297,14 +28639,6 @@
       <c r="U333" t="n">
         <v>49962</v>
       </c>
-      <c r="V333" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W333" t="n">
-        <v>5500</v>
-      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -31390,14 +28724,6 @@
       <c r="U334" t="n">
         <v>25412</v>
       </c>
-      <c r="V334" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W334" t="n">
-        <v>3811.8</v>
-      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -31483,14 +28809,6 @@
       <c r="U335" t="n">
         <v>27461</v>
       </c>
-      <c r="V335" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W335" t="n">
-        <v>4119.15</v>
-      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -31576,14 +28894,6 @@
       <c r="U336" t="n">
         <v>5585</v>
       </c>
-      <c r="V336" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W336" t="n">
-        <v>837.75</v>
-      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -31669,14 +28979,6 @@
       <c r="U337" t="n">
         <v>56271</v>
       </c>
-      <c r="V337" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W337" t="n">
-        <v>5500</v>
-      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -31762,14 +29064,6 @@
       <c r="U338" t="n">
         <v>29028</v>
       </c>
-      <c r="V338" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W338" t="n">
-        <v>4354.2</v>
-      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -31855,14 +29149,6 @@
       <c r="U339" t="n">
         <v>25905</v>
       </c>
-      <c r="V339" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W339" t="n">
-        <v>3885.75</v>
-      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -31946,14 +29232,6 @@
       <c r="U340" t="n">
         <v>0</v>
       </c>
-      <c r="V340" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W340" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -32039,14 +29317,6 @@
       <c r="U341" t="n">
         <v>33308</v>
       </c>
-      <c r="V341" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W341" t="n">
-        <v>4996.2</v>
-      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -32132,14 +29402,6 @@
       <c r="U342" t="n">
         <v>39975</v>
       </c>
-      <c r="V342" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W342" t="n">
-        <v>5500</v>
-      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -32225,14 +29487,6 @@
       <c r="U343" t="n">
         <v>14582</v>
       </c>
-      <c r="V343" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W343" t="n">
-        <v>2187.3</v>
-      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -32318,14 +29572,6 @@
       <c r="U344" t="n">
         <v>15748</v>
       </c>
-      <c r="V344" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W344" t="n">
-        <v>2362.2</v>
-      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -32411,14 +29657,6 @@
       <c r="U345" t="n">
         <v>17075</v>
       </c>
-      <c r="V345" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W345" t="n">
-        <v>2561.25</v>
-      </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -32504,14 +29742,6 @@
       <c r="U346" t="n">
         <v>25599</v>
       </c>
-      <c r="V346" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W346" t="n">
-        <v>3839.85</v>
-      </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -32597,14 +29827,6 @@
       <c r="U347" t="n">
         <v>6078</v>
       </c>
-      <c r="V347" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W347" t="n">
-        <v>911.7</v>
-      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -32690,14 +29912,6 @@
       <c r="U348" t="n">
         <v>9851</v>
       </c>
-      <c r="V348" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W348" t="n">
-        <v>1477.65</v>
-      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -32783,14 +29997,6 @@
       <c r="U349" t="n">
         <v>20807</v>
       </c>
-      <c r="V349" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W349" t="n">
-        <v>3121.05</v>
-      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -32876,14 +30082,6 @@
       <c r="U350" t="n">
         <v>9244</v>
       </c>
-      <c r="V350" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W350" t="n">
-        <v>1386.6</v>
-      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -32969,14 +30167,6 @@
       <c r="U351" t="n">
         <v>8901</v>
       </c>
-      <c r="V351" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W351" t="n">
-        <v>1335.15</v>
-      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -33062,14 +30252,6 @@
       <c r="U352" t="n">
         <v>20344</v>
       </c>
-      <c r="V352" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W352" t="n">
-        <v>3051.6</v>
-      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -33155,14 +30337,6 @@
       <c r="U353" t="n">
         <v>3844</v>
       </c>
-      <c r="V353" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W353" t="n">
-        <v>576.6</v>
-      </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -33248,14 +30422,6 @@
       <c r="U354" t="n">
         <v>310391</v>
       </c>
-      <c r="V354" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W354" t="n">
-        <v>5500</v>
-      </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -33341,14 +30507,6 @@
       <c r="U355" t="n">
         <v>14391</v>
       </c>
-      <c r="V355" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W355" t="n">
-        <v>2158.65</v>
-      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -33434,14 +30592,6 @@
       <c r="U356" t="n">
         <v>60748</v>
       </c>
-      <c r="V356" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W356" t="n">
-        <v>5500</v>
-      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -33527,14 +30677,6 @@
       <c r="U357" t="n">
         <v>49753</v>
       </c>
-      <c r="V357" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W357" t="n">
-        <v>5500</v>
-      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -33620,14 +30762,6 @@
       <c r="U358" t="n">
         <v>10044</v>
       </c>
-      <c r="V358" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W358" t="n">
-        <v>1506.6</v>
-      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -33713,14 +30847,6 @@
       <c r="U359" t="n">
         <v>43456</v>
       </c>
-      <c r="V359" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W359" t="n">
-        <v>5500</v>
-      </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -33806,14 +30932,6 @@
       <c r="U360" t="n">
         <v>9145</v>
       </c>
-      <c r="V360" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W360" t="n">
-        <v>1371.75</v>
-      </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -33899,14 +31017,6 @@
       <c r="U361" t="n">
         <v>6402</v>
       </c>
-      <c r="V361" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W361" t="n">
-        <v>960.3</v>
-      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -33992,14 +31102,6 @@
       <c r="U362" t="n">
         <v>25062</v>
       </c>
-      <c r="V362" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W362" t="n">
-        <v>3759.3</v>
-      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -34085,14 +31187,6 @@
       <c r="U363" t="n">
         <v>22689</v>
       </c>
-      <c r="V363" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W363" t="n">
-        <v>3403.35</v>
-      </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -34178,14 +31272,6 @@
       <c r="U364" t="n">
         <v>29050</v>
       </c>
-      <c r="V364" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W364" t="n">
-        <v>4357.5</v>
-      </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -34271,14 +31357,6 @@
       <c r="U365" t="n">
         <v>6107</v>
       </c>
-      <c r="V365" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W365" t="n">
-        <v>916.05</v>
-      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -34364,14 +31442,6 @@
       <c r="U366" t="n">
         <v>19579</v>
       </c>
-      <c r="V366" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W366" t="n">
-        <v>1664.215</v>
-      </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -34457,14 +31527,6 @@
       <c r="U367" t="n">
         <v>11776</v>
       </c>
-      <c r="V367" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W367" t="n">
-        <v>1766.4</v>
-      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -34550,14 +31612,6 @@
       <c r="U368" t="n">
         <v>224341</v>
       </c>
-      <c r="V368" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W368" t="n">
-        <v>5500</v>
-      </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -34643,14 +31697,6 @@
       <c r="U369" t="n">
         <v>66993</v>
       </c>
-      <c r="V369" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W369" t="n">
-        <v>5500</v>
-      </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -34736,14 +31782,6 @@
       <c r="U370" t="n">
         <v>46567</v>
       </c>
-      <c r="V370" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W370" t="n">
-        <v>5500</v>
-      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -34829,14 +31867,6 @@
       <c r="U371" t="n">
         <v>9848</v>
       </c>
-      <c r="V371" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W371" t="n">
-        <v>1477.2</v>
-      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -34922,14 +31952,6 @@
       <c r="U372" t="n">
         <v>56051</v>
       </c>
-      <c r="V372" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W372" t="n">
-        <v>5500</v>
-      </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -35015,14 +32037,6 @@
       <c r="U373" t="n">
         <v>76138</v>
       </c>
-      <c r="V373" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W373" t="n">
-        <v>5500</v>
-      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -35108,14 +32122,6 @@
       <c r="U374" t="n">
         <v>72955</v>
       </c>
-      <c r="V374" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W374" t="n">
-        <v>5500</v>
-      </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -35201,14 +32207,6 @@
       <c r="U375" t="n">
         <v>39053</v>
       </c>
-      <c r="V375" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W375" t="n">
-        <v>5500</v>
-      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -35294,14 +32292,6 @@
       <c r="U376" t="n">
         <v>63162</v>
       </c>
-      <c r="V376" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W376" t="n">
-        <v>5500</v>
-      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -35387,14 +32377,6 @@
       <c r="U377" t="n">
         <v>56198</v>
       </c>
-      <c r="V377" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W377" t="n">
-        <v>5500</v>
-      </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -35480,14 +32462,6 @@
       <c r="U378" t="n">
         <v>32700</v>
       </c>
-      <c r="V378" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W378" t="n">
-        <v>4905</v>
-      </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -35573,14 +32547,6 @@
       <c r="U379" t="n">
         <v>38601</v>
       </c>
-      <c r="V379" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W379" t="n">
-        <v>5500</v>
-      </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -35666,14 +32632,6 @@
       <c r="U380" t="n">
         <v>44462</v>
       </c>
-      <c r="V380" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W380" t="n">
-        <v>5500</v>
-      </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -35759,14 +32717,6 @@
       <c r="U381" t="n">
         <v>28951</v>
       </c>
-      <c r="V381" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W381" t="n">
-        <v>4342.65</v>
-      </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -35850,14 +32800,6 @@
       <c r="U382" t="n">
         <v>0</v>
       </c>
-      <c r="V382" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W382" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -35943,14 +32885,6 @@
       <c r="U383" t="n">
         <v>27262</v>
       </c>
-      <c r="V383" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W383" t="n">
-        <v>4089.3</v>
-      </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -36036,14 +32970,6 @@
       <c r="U384" t="n">
         <v>26992</v>
       </c>
-      <c r="V384" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W384" t="n">
-        <v>4048.8</v>
-      </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -36129,14 +33055,6 @@
       <c r="U385" t="n">
         <v>33480</v>
       </c>
-      <c r="V385" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W385" t="n">
-        <v>5022</v>
-      </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -36222,14 +33140,6 @@
       <c r="U386" t="n">
         <v>0</v>
       </c>
-      <c r="V386" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W386" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -36315,14 +33225,6 @@
       <c r="U387" t="n">
         <v>6425</v>
       </c>
-      <c r="V387" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W387" t="n">
-        <v>963.75</v>
-      </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -36408,14 +33310,6 @@
       <c r="U388" t="n">
         <v>32537</v>
       </c>
-      <c r="V388" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W388" t="n">
-        <v>4880.55</v>
-      </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -36501,14 +33395,6 @@
       <c r="U389" t="n">
         <v>16307</v>
       </c>
-      <c r="V389" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W389" t="n">
-        <v>2446.05</v>
-      </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -36594,14 +33480,6 @@
       <c r="U390" t="n">
         <v>33979</v>
       </c>
-      <c r="V390" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W390" t="n">
-        <v>5096.85</v>
-      </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -36687,14 +33565,6 @@
       <c r="U391" t="n">
         <v>26852</v>
       </c>
-      <c r="V391" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W391" t="n">
-        <v>4027.8</v>
-      </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -36780,14 +33650,6 @@
       <c r="U392" t="n">
         <v>39146</v>
       </c>
-      <c r="V392" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W392" t="n">
-        <v>5500</v>
-      </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -36873,14 +33735,6 @@
       <c r="U393" t="n">
         <v>17624</v>
       </c>
-      <c r="V393" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W393" t="n">
-        <v>2643.6</v>
-      </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -36964,14 +33818,6 @@
       <c r="U394" t="n">
         <v>0</v>
       </c>
-      <c r="V394" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W394" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -37055,14 +33901,6 @@
       <c r="U395" t="n">
         <v>0</v>
       </c>
-      <c r="V395" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W395" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -37148,14 +33986,6 @@
       <c r="U396" t="n">
         <v>16130</v>
       </c>
-      <c r="V396" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W396" t="n">
-        <v>2419.5</v>
-      </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -37241,14 +34071,6 @@
       <c r="U397" t="n">
         <v>19619</v>
       </c>
-      <c r="V397" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W397" t="n">
-        <v>2942.85</v>
-      </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -37334,14 +34156,6 @@
       <c r="U398" t="n">
         <v>16390</v>
       </c>
-      <c r="V398" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W398" t="n">
-        <v>2458.5</v>
-      </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -37427,14 +34241,6 @@
       <c r="U399" t="n">
         <v>18970</v>
       </c>
-      <c r="V399" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W399" t="n">
-        <v>2845.5</v>
-      </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -37518,14 +34324,6 @@
       <c r="U400" t="n">
         <v>0</v>
       </c>
-      <c r="V400" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W400" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -37611,14 +34409,6 @@
       <c r="U401" t="n">
         <v>13387</v>
       </c>
-      <c r="V401" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W401" t="n">
-        <v>2008.05</v>
-      </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -37702,14 +34492,6 @@
       <c r="U402" t="n">
         <v>0</v>
       </c>
-      <c r="V402" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W402" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -37795,14 +34577,6 @@
       <c r="U403" t="n">
         <v>33172</v>
       </c>
-      <c r="V403" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W403" t="n">
-        <v>4975.8</v>
-      </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -37888,14 +34662,6 @@
       <c r="U404" t="n">
         <v>18936</v>
       </c>
-      <c r="V404" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W404" t="n">
-        <v>2840.4</v>
-      </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -37981,14 +34747,6 @@
       <c r="U405" t="n">
         <v>18746</v>
       </c>
-      <c r="V405" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W405" t="n">
-        <v>2811.9</v>
-      </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -38074,14 +34832,6 @@
       <c r="U406" t="n">
         <v>2152</v>
       </c>
-      <c r="V406" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W406" t="n">
-        <v>322.8</v>
-      </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -38167,14 +34917,6 @@
       <c r="U407" t="n">
         <v>30222</v>
       </c>
-      <c r="V407" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W407" t="n">
-        <v>4533.3</v>
-      </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -38260,14 +35002,6 @@
       <c r="U408" t="n">
         <v>25368</v>
       </c>
-      <c r="V408" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W408" t="n">
-        <v>3805.2</v>
-      </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -38353,14 +35087,6 @@
       <c r="U409" t="n">
         <v>25487</v>
       </c>
-      <c r="V409" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W409" t="n">
-        <v>3823.05</v>
-      </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -38444,14 +35170,6 @@
       <c r="U410" t="n">
         <v>0</v>
       </c>
-      <c r="V410" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W410" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -38537,14 +35255,6 @@
       <c r="U411" t="n">
         <v>0</v>
       </c>
-      <c r="V411" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W411" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -38630,14 +35340,6 @@
       <c r="U412" t="n">
         <v>12958</v>
       </c>
-      <c r="V412" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W412" t="n">
-        <v>1943.7</v>
-      </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -38723,14 +35425,6 @@
       <c r="U413" t="n">
         <v>12387</v>
       </c>
-      <c r="V413" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W413" t="n">
-        <v>1858.05</v>
-      </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -38816,14 +35510,6 @@
       <c r="U414" t="n">
         <v>13634</v>
       </c>
-      <c r="V414" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W414" t="n">
-        <v>2045.1</v>
-      </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -38909,14 +35595,6 @@
       <c r="U415" t="n">
         <v>12264</v>
       </c>
-      <c r="V415" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W415" t="n">
-        <v>1839.6</v>
-      </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -39002,14 +35680,6 @@
       <c r="U416" t="n">
         <v>10583</v>
       </c>
-      <c r="V416" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W416" t="n">
-        <v>1587.45</v>
-      </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -39095,14 +35765,6 @@
       <c r="U417" t="n">
         <v>12132</v>
       </c>
-      <c r="V417" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W417" t="n">
-        <v>1819.8</v>
-      </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -39186,14 +35848,6 @@
       <c r="U418" t="n">
         <v>0</v>
       </c>
-      <c r="V418" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W418" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -39279,14 +35933,6 @@
       <c r="U419" t="n">
         <v>28869</v>
       </c>
-      <c r="V419" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W419" t="n">
-        <v>4330.35</v>
-      </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -39372,14 +36018,6 @@
       <c r="U420" t="n">
         <v>10131</v>
       </c>
-      <c r="V420" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W420" t="n">
-        <v>1519.65</v>
-      </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -39465,14 +36103,6 @@
       <c r="U421" t="n">
         <v>10322</v>
       </c>
-      <c r="V421" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W421" t="n">
-        <v>1548.3</v>
-      </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -39558,14 +36188,6 @@
       <c r="U422" t="n">
         <v>9322</v>
       </c>
-      <c r="V422" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W422" t="n">
-        <v>1398.3</v>
-      </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -39651,14 +36273,6 @@
       <c r="U423" t="n">
         <v>15293</v>
       </c>
-      <c r="V423" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W423" t="n">
-        <v>2293.95</v>
-      </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
@@ -39742,14 +36356,6 @@
       <c r="U424" t="n">
         <v>0</v>
       </c>
-      <c r="V424" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W424" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -39835,14 +36441,6 @@
       <c r="U425" t="n">
         <v>14783</v>
       </c>
-      <c r="V425" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W425" t="n">
-        <v>2217.45</v>
-      </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -39928,14 +36526,6 @@
       <c r="U426" t="n">
         <v>10545</v>
       </c>
-      <c r="V426" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W426" t="n">
-        <v>1581.75</v>
-      </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -40021,14 +36611,6 @@
       <c r="U427" t="n">
         <v>11734</v>
       </c>
-      <c r="V427" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W427" t="n">
-        <v>1760.1</v>
-      </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -40114,14 +36696,6 @@
       <c r="U428" t="n">
         <v>7243</v>
       </c>
-      <c r="V428" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W428" t="n">
-        <v>1086.45</v>
-      </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -40207,14 +36781,6 @@
       <c r="U429" t="n">
         <v>17570</v>
       </c>
-      <c r="V429" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W429" t="n">
-        <v>2635.5</v>
-      </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
@@ -40300,14 +36866,6 @@
       <c r="U430" t="n">
         <v>12595</v>
       </c>
-      <c r="V430" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W430" t="n">
-        <v>1889.25</v>
-      </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -40393,14 +36951,6 @@
       <c r="U431" t="n">
         <v>3673</v>
       </c>
-      <c r="V431" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W431" t="n">
-        <v>550.95</v>
-      </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -40484,14 +37034,6 @@
       <c r="U432" t="n">
         <v>0</v>
       </c>
-      <c r="V432" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W432" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -40575,14 +37117,6 @@
       <c r="U433" t="n">
         <v>0</v>
       </c>
-      <c r="V433" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W433" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -40668,14 +37202,6 @@
       <c r="U434" t="n">
         <v>6899</v>
       </c>
-      <c r="V434" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W434" t="n">
-        <v>1034.85</v>
-      </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -40761,14 +37287,6 @@
       <c r="U435" t="n">
         <v>2424</v>
       </c>
-      <c r="V435" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="W435" t="n">
-        <v>363.6</v>
-      </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -40854,14 +37372,6 @@
       <c r="U436" t="n">
         <v>33033</v>
       </c>
-      <c r="V436" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W436" t="n">
-        <v>2807.805</v>
-      </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -40947,14 +37457,6 @@
       <c r="U437" t="n">
         <v>11283</v>
       </c>
-      <c r="V437" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W437" t="n">
-        <v>959.0549999999999</v>
-      </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -41040,14 +37542,6 @@
       <c r="U438" t="n">
         <v>29979</v>
       </c>
-      <c r="V438" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W438" t="n">
-        <v>2548.215</v>
-      </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -41133,14 +37627,6 @@
       <c r="U439" t="n">
         <v>36987</v>
       </c>
-      <c r="V439" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W439" t="n">
-        <v>3143.895</v>
-      </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -41226,14 +37712,6 @@
       <c r="U440" t="n">
         <v>33152</v>
       </c>
-      <c r="V440" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W440" t="n">
-        <v>2817.92</v>
-      </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
@@ -41319,14 +37797,6 @@
       <c r="U441" t="n">
         <v>17325</v>
       </c>
-      <c r="V441" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W441" t="n">
-        <v>1472.625</v>
-      </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -41410,14 +37880,6 @@
       <c r="U442" t="n">
         <v>0</v>
       </c>
-      <c r="V442" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W442" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -41503,14 +37965,6 @@
       <c r="U443" t="n">
         <v>29961</v>
       </c>
-      <c r="V443" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W443" t="n">
-        <v>2546.685</v>
-      </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
@@ -41596,14 +38050,6 @@
       <c r="U444" t="n">
         <v>39037</v>
       </c>
-      <c r="V444" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W444" t="n">
-        <v>3318.145</v>
-      </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
@@ -41689,14 +38135,6 @@
       <c r="U445" t="n">
         <v>7051</v>
       </c>
-      <c r="V445" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W445" t="n">
-        <v>599.335</v>
-      </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
@@ -41782,14 +38220,6 @@
       <c r="U446" t="n">
         <v>17900</v>
       </c>
-      <c r="V446" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W446" t="n">
-        <v>1521.5</v>
-      </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -41875,14 +38305,6 @@
       <c r="U447" t="n">
         <v>31089</v>
       </c>
-      <c r="V447" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W447" t="n">
-        <v>2642.565</v>
-      </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
@@ -41966,14 +38388,6 @@
       <c r="U448" t="n">
         <v>0</v>
       </c>
-      <c r="V448" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W448" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
@@ -42059,14 +38473,6 @@
       <c r="U449" t="n">
         <v>21963</v>
       </c>
-      <c r="V449" t="inlineStr">
-        <is>
-          <t>8.5%</t>
-        </is>
-      </c>
-      <c r="W449" t="n">
-        <v>1866.855</v>
-      </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
@@ -42150,14 +38556,6 @@
       <c r="U450" t="n">
         <v>0</v>
       </c>
-      <c r="V450" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W450" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -42241,14 +38639,6 @@
       <c r="U451" t="n">
         <v>0</v>
       </c>
-      <c r="V451" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W451" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
@@ -42332,14 +38722,6 @@
       <c r="U452" t="n">
         <v>0</v>
       </c>
-      <c r="V452" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W452" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
@@ -42423,14 +38805,6 @@
       <c r="U453" t="n">
         <v>0</v>
       </c>
-      <c r="V453" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W453" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -42512,14 +38886,6 @@
       </c>
       <c r="T454" t="inlineStr"/>
       <c r="U454" t="n">
-        <v>0</v>
-      </c>
-      <c r="V454" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="W454" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Main Website/media/IDFC_HL/FOS Salary/MASTER_FILE_IDFC_HL.xlsx
+++ b/Main Website/media/IDFC_HL/FOS Salary/MASTER_FILE_IDFC_HL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U454"/>
+  <dimension ref="A1:W454"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,6 +539,16 @@
           <t>Billing PAID AMT.</t>
         </is>
       </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENTAGE</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>PAYOUT</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -624,6 +634,14 @@
       <c r="U2" t="n">
         <v>0</v>
       </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -709,6 +727,14 @@
       <c r="U3" t="n">
         <v>165984</v>
       </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W3" t="n">
+        <v>5500</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -794,6 +820,14 @@
       <c r="U4" t="n">
         <v>152250</v>
       </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W4" t="n">
+        <v>5500</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -879,6 +913,14 @@
       <c r="U5" t="n">
         <v>138134</v>
       </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W5" t="n">
+        <v>5500</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -964,6 +1006,14 @@
       <c r="U6" t="n">
         <v>25747</v>
       </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W6" t="n">
+        <v>3862.05</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1047,6 +1097,14 @@
       <c r="U7" t="n">
         <v>0</v>
       </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1132,6 +1190,14 @@
       <c r="U8" t="n">
         <v>86292</v>
       </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W8" t="n">
+        <v>5500</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1215,6 +1281,14 @@
       <c r="U9" t="n">
         <v>0</v>
       </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1300,6 +1374,14 @@
       <c r="U10" t="n">
         <v>79891</v>
       </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W10" t="n">
+        <v>5500</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1385,6 +1467,14 @@
       <c r="U11" t="n">
         <v>23020</v>
       </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W11" t="n">
+        <v>3453</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1470,6 +1560,14 @@
       <c r="U12" t="n">
         <v>85315</v>
       </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W12" t="n">
+        <v>5500</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1555,6 +1653,14 @@
       <c r="U13" t="n">
         <v>95629</v>
       </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W13" t="n">
+        <v>5500</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1640,6 +1746,14 @@
       <c r="U14" t="n">
         <v>76673</v>
       </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W14" t="n">
+        <v>5500</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1725,6 +1839,14 @@
       <c r="U15" t="n">
         <v>67317</v>
       </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W15" t="n">
+        <v>5500</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1810,6 +1932,14 @@
       <c r="U16" t="n">
         <v>87275</v>
       </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W16" t="n">
+        <v>5500</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1895,6 +2025,14 @@
       <c r="U17" t="n">
         <v>73253</v>
       </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W17" t="n">
+        <v>5500</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1980,6 +2118,14 @@
       <c r="U18" t="n">
         <v>17479</v>
       </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W18" t="n">
+        <v>2621.85</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2065,6 +2211,14 @@
       <c r="U19" t="n">
         <v>9019</v>
       </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W19" t="n">
+        <v>1352.85</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2150,6 +2304,14 @@
       <c r="U20" t="n">
         <v>50944</v>
       </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W20" t="n">
+        <v>5500</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2235,6 +2397,14 @@
       <c r="U21" t="n">
         <v>50323</v>
       </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W21" t="n">
+        <v>5500</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2320,6 +2490,14 @@
       <c r="U22" t="n">
         <v>47375</v>
       </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W22" t="n">
+        <v>5500</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2405,6 +2583,14 @@
       <c r="U23" t="n">
         <v>44345</v>
       </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W23" t="n">
+        <v>5500</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2490,6 +2676,14 @@
       <c r="U24" t="n">
         <v>42847</v>
       </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W24" t="n">
+        <v>5500</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2575,6 +2769,14 @@
       <c r="U25" t="n">
         <v>41653</v>
       </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W25" t="n">
+        <v>5500</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2660,6 +2862,14 @@
       <c r="U26" t="n">
         <v>42461</v>
       </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W26" t="n">
+        <v>5500</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2745,6 +2955,14 @@
       <c r="U27" t="n">
         <v>35227</v>
       </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W27" t="n">
+        <v>5284.05</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2830,6 +3048,14 @@
       <c r="U28" t="n">
         <v>17033</v>
       </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W28" t="n">
+        <v>2554.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2915,6 +3141,14 @@
       <c r="U29" t="n">
         <v>42000</v>
       </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W29" t="n">
+        <v>5500</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3000,6 +3234,14 @@
       <c r="U30" t="n">
         <v>36549</v>
       </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W30" t="n">
+        <v>5482.35</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3085,6 +3327,14 @@
       <c r="U31" t="n">
         <v>34741</v>
       </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W31" t="n">
+        <v>5211.15</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3170,6 +3420,14 @@
       <c r="U32" t="n">
         <v>27596</v>
       </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W32" t="n">
+        <v>4139.4</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3255,6 +3513,14 @@
       <c r="U33" t="n">
         <v>32250</v>
       </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W33" t="n">
+        <v>4837.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3340,6 +3606,14 @@
       <c r="U34" t="n">
         <v>7395</v>
       </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W34" t="n">
+        <v>1109.25</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3423,6 +3697,14 @@
       <c r="U35" t="n">
         <v>0</v>
       </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3508,6 +3790,14 @@
       <c r="U36" t="n">
         <v>4831</v>
       </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W36" t="n">
+        <v>724.65</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3593,6 +3883,14 @@
       <c r="U37" t="n">
         <v>29121</v>
       </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W37" t="n">
+        <v>4368.15</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3678,6 +3976,14 @@
       <c r="U38" t="n">
         <v>17043</v>
       </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W38" t="n">
+        <v>2556.45</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3763,6 +4069,14 @@
       <c r="U39" t="n">
         <v>15615</v>
       </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W39" t="n">
+        <v>2342.25</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3848,6 +4162,14 @@
       <c r="U40" t="n">
         <v>30762</v>
       </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W40" t="n">
+        <v>4614.3</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3933,6 +4255,14 @@
       <c r="U41" t="n">
         <v>18010</v>
       </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W41" t="n">
+        <v>2701.5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4018,6 +4348,14 @@
       <c r="U42" t="n">
         <v>33959</v>
       </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W42" t="n">
+        <v>5093.85</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4103,6 +4441,14 @@
       <c r="U43" t="n">
         <v>46878</v>
       </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W43" t="n">
+        <v>5500</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4188,6 +4534,14 @@
       <c r="U44" t="n">
         <v>13089</v>
       </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W44" t="n">
+        <v>1963.35</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4273,6 +4627,14 @@
       <c r="U45" t="n">
         <v>5852</v>
       </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W45" t="n">
+        <v>877.8</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4358,6 +4720,14 @@
       <c r="U46" t="n">
         <v>2100000</v>
       </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="W46" t="n">
+        <v>25000</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4443,6 +4813,14 @@
       <c r="U47" t="n">
         <v>25682</v>
       </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W47" t="n">
+        <v>3852.3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4528,6 +4906,14 @@
       <c r="U48" t="n">
         <v>23836</v>
       </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W48" t="n">
+        <v>3575.4</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4613,6 +4999,14 @@
       <c r="U49" t="n">
         <v>23899</v>
       </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W49" t="n">
+        <v>3584.85</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4696,6 +5090,14 @@
       <c r="U50" t="n">
         <v>0</v>
       </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4781,6 +5183,14 @@
       <c r="U51" t="n">
         <v>23242</v>
       </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W51" t="n">
+        <v>3486.3</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4866,6 +5276,14 @@
       <c r="U52" t="n">
         <v>0</v>
       </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4951,6 +5369,14 @@
       <c r="U53" t="n">
         <v>41735</v>
       </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W53" t="n">
+        <v>5500</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5034,6 +5460,14 @@
       <c r="U54" t="n">
         <v>0</v>
       </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5119,6 +5553,14 @@
       <c r="U55" t="n">
         <v>11562</v>
       </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W55" t="n">
+        <v>1734.3</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5204,6 +5646,14 @@
       <c r="U56" t="n">
         <v>25318</v>
       </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W56" t="n">
+        <v>3797.7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5289,6 +5739,14 @@
       <c r="U57" t="n">
         <v>12899</v>
       </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W57" t="n">
+        <v>1934.85</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5374,6 +5832,14 @@
       <c r="U58" t="n">
         <v>22875</v>
       </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W58" t="n">
+        <v>3431.25</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5459,6 +5925,14 @@
       <c r="U59" t="n">
         <v>5806</v>
       </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W59" t="n">
+        <v>870.9</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5544,6 +6018,14 @@
       <c r="U60" t="n">
         <v>23291</v>
       </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W60" t="n">
+        <v>3493.65</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -5629,6 +6111,14 @@
       <c r="U61" t="n">
         <v>25279</v>
       </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W61" t="n">
+        <v>3791.85</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5714,6 +6204,14 @@
       <c r="U62" t="n">
         <v>37192</v>
       </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W62" t="n">
+        <v>5500</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5799,6 +6297,14 @@
       <c r="U63" t="n">
         <v>25578</v>
       </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W63" t="n">
+        <v>3836.7</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5884,6 +6390,14 @@
       <c r="U64" t="n">
         <v>19388</v>
       </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W64" t="n">
+        <v>2908.2</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5969,6 +6483,14 @@
       <c r="U65" t="n">
         <v>19894</v>
       </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W65" t="n">
+        <v>2984.1</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -6052,6 +6574,14 @@
       <c r="U66" t="n">
         <v>0</v>
       </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -6137,6 +6667,14 @@
       <c r="U67" t="n">
         <v>10838</v>
       </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W67" t="n">
+        <v>1625.7</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -6222,6 +6760,14 @@
       <c r="U68" t="n">
         <v>18200</v>
       </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W68" t="n">
+        <v>2730</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -6307,6 +6853,14 @@
       <c r="U69" t="n">
         <v>8692</v>
       </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W69" t="n">
+        <v>1303.8</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -6392,6 +6946,14 @@
       <c r="U70" t="n">
         <v>18980</v>
       </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W70" t="n">
+        <v>2847</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -6477,6 +7039,14 @@
       <c r="U71" t="n">
         <v>7953</v>
       </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W71" t="n">
+        <v>1192.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -6560,6 +7130,14 @@
       <c r="U72" t="n">
         <v>0</v>
       </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -6645,6 +7223,14 @@
       <c r="U73" t="n">
         <v>34288</v>
       </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W73" t="n">
+        <v>5143.2</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -6730,6 +7316,14 @@
       <c r="U74" t="n">
         <v>12821</v>
       </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W74" t="n">
+        <v>1923.15</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -6813,6 +7407,14 @@
       <c r="U75" t="n">
         <v>0</v>
       </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -6898,6 +7500,14 @@
       <c r="U76" t="n">
         <v>6031</v>
       </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W76" t="n">
+        <v>904.65</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -6981,6 +7591,14 @@
       <c r="U77" t="n">
         <v>0</v>
       </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -7066,6 +7684,14 @@
       <c r="U78" t="n">
         <v>29636</v>
       </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W78" t="n">
+        <v>4445.4</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -7151,6 +7777,14 @@
       <c r="U79" t="n">
         <v>20121</v>
       </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W79" t="n">
+        <v>3018.15</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -7234,6 +7868,14 @@
       <c r="U80" t="n">
         <v>0</v>
       </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -7319,6 +7961,14 @@
       <c r="U81" t="n">
         <v>7661</v>
       </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W81" t="n">
+        <v>1149.15</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -7404,6 +8054,14 @@
       <c r="U82" t="n">
         <v>36804</v>
       </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W82" t="n">
+        <v>5500</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -7489,6 +8147,14 @@
       <c r="U83" t="n">
         <v>4545</v>
       </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W83" t="n">
+        <v>681.75</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -7574,6 +8240,14 @@
       <c r="U84" t="n">
         <v>12809</v>
       </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W84" t="n">
+        <v>1921.35</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -7659,6 +8333,14 @@
       <c r="U85" t="n">
         <v>12871</v>
       </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W85" t="n">
+        <v>1930.65</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -7744,6 +8426,14 @@
       <c r="U86" t="n">
         <v>10234</v>
       </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W86" t="n">
+        <v>1535.1</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -7829,6 +8519,14 @@
       <c r="U87" t="n">
         <v>12784</v>
       </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W87" t="n">
+        <v>1917.6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -7914,6 +8612,14 @@
       <c r="U88" t="n">
         <v>2373</v>
       </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W88" t="n">
+        <v>355.95</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -7999,6 +8705,14 @@
       <c r="U89" t="n">
         <v>13755</v>
       </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W89" t="n">
+        <v>2063.25</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -8084,6 +8798,14 @@
       <c r="U90" t="n">
         <v>4439</v>
       </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W90" t="n">
+        <v>665.85</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -8169,6 +8891,14 @@
       <c r="U91" t="n">
         <v>4570</v>
       </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W91" t="n">
+        <v>685.5</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -8254,6 +8984,14 @@
       <c r="U92" t="n">
         <v>71291</v>
       </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W92" t="n">
+        <v>5500</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -8339,6 +9077,14 @@
       <c r="U93" t="n">
         <v>7719</v>
       </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W93" t="n">
+        <v>1157.85</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -8424,6 +9170,14 @@
       <c r="U94" t="n">
         <v>41614</v>
       </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W94" t="n">
+        <v>3537.19</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -8509,6 +9263,14 @@
       <c r="U95" t="n">
         <v>78979</v>
       </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W95" t="n">
+        <v>5500</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -8592,6 +9354,14 @@
       <c r="U96" t="n">
         <v>0</v>
       </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -8677,6 +9447,14 @@
       <c r="U97" t="n">
         <v>55804</v>
       </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W97" t="n">
+        <v>4743.34</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -8762,6 +9540,14 @@
       <c r="U98" t="n">
         <v>84956</v>
       </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W98" t="n">
+        <v>5500</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -8847,6 +9633,14 @@
       <c r="U99" t="n">
         <v>69463</v>
       </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W99" t="n">
+        <v>5500</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -8932,6 +9726,14 @@
       <c r="U100" t="n">
         <v>44578</v>
       </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W100" t="n">
+        <v>3789.13</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -9015,6 +9817,14 @@
       <c r="U101" t="n">
         <v>0</v>
       </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -9098,6 +9908,14 @@
       <c r="U102" t="n">
         <v>0</v>
       </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -9183,6 +10001,14 @@
       <c r="U103" t="n">
         <v>0</v>
       </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -9268,6 +10094,14 @@
       <c r="U104" t="n">
         <v>52196</v>
       </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W104" t="n">
+        <v>4436.66</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -9353,6 +10187,14 @@
       <c r="U105" t="n">
         <v>36000</v>
       </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W105" t="n">
+        <v>3060</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -9438,6 +10280,14 @@
       <c r="U106" t="n">
         <v>29961</v>
       </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W106" t="n">
+        <v>2546.685</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -9523,6 +10373,14 @@
       <c r="U107" t="n">
         <v>66064</v>
       </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W107" t="n">
+        <v>5615.44</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -9608,6 +10466,14 @@
       <c r="U108" t="n">
         <v>31596</v>
       </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W108" t="n">
+        <v>2685.66</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -9693,6 +10559,14 @@
       <c r="U109" t="n">
         <v>36987</v>
       </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W109" t="n">
+        <v>3143.895</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -9778,6 +10652,14 @@
       <c r="U110" t="n">
         <v>33033</v>
       </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W110" t="n">
+        <v>2807.805</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -9863,6 +10745,14 @@
       <c r="U111" t="n">
         <v>31993</v>
       </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W111" t="n">
+        <v>2719.405</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -9948,6 +10838,14 @@
       <c r="U112" t="n">
         <v>31993</v>
       </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W112" t="n">
+        <v>2719.405</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -10033,6 +10931,14 @@
       <c r="U113" t="n">
         <v>52056</v>
       </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W113" t="n">
+        <v>4424.76</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -10116,6 +11022,14 @@
       <c r="U114" t="n">
         <v>0</v>
       </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -10199,6 +11113,14 @@
       <c r="U115" t="n">
         <v>0</v>
       </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -10284,6 +11206,14 @@
       <c r="U116" t="n">
         <v>44562</v>
       </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W116" t="n">
+        <v>3787.77</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -10369,6 +11299,14 @@
       <c r="U117" t="n">
         <v>42237</v>
       </c>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W117" t="n">
+        <v>3590.145</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -10454,6 +11392,14 @@
       <c r="U118" t="n">
         <v>0</v>
       </c>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -10539,6 +11485,14 @@
       <c r="U119" t="n">
         <v>0</v>
       </c>
+      <c r="V119" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -10624,6 +11578,14 @@
       <c r="U120" t="n">
         <v>300001</v>
       </c>
+      <c r="V120" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="W120" t="n">
+        <v>12000.04</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -10709,6 +11671,14 @@
       <c r="U121" t="n">
         <v>0</v>
       </c>
+      <c r="V121" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -10794,6 +11764,14 @@
       <c r="U122" t="n">
         <v>26661</v>
       </c>
+      <c r="V122" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W122" t="n">
+        <v>2266.185</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -10879,6 +11857,14 @@
       <c r="U123" t="n">
         <v>0</v>
       </c>
+      <c r="V123" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -10962,6 +11948,14 @@
       <c r="U124" t="n">
         <v>0</v>
       </c>
+      <c r="V124" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -11047,6 +12041,14 @@
       <c r="U125" t="n">
         <v>81218</v>
       </c>
+      <c r="V125" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W125" t="n">
+        <v>6903.53</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -11132,6 +12134,14 @@
       <c r="U126" t="n">
         <v>28280</v>
       </c>
+      <c r="V126" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W126" t="n">
+        <v>2403.8</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -11217,6 +12227,14 @@
       <c r="U127" t="n">
         <v>47548</v>
       </c>
+      <c r="V127" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W127" t="n">
+        <v>4041.58</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -11302,6 +12320,14 @@
       <c r="U128" t="n">
         <v>24329</v>
       </c>
+      <c r="V128" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W128" t="n">
+        <v>2067.965</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -11385,6 +12411,14 @@
       <c r="U129" t="n">
         <v>0</v>
       </c>
+      <c r="V129" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -11470,6 +12504,14 @@
       <c r="U130" t="n">
         <v>30370</v>
       </c>
+      <c r="V130" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W130" t="n">
+        <v>2581.45</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -11553,6 +12595,14 @@
       <c r="U131" t="n">
         <v>0</v>
       </c>
+      <c r="V131" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -11638,6 +12688,14 @@
       <c r="U132" t="n">
         <v>32000</v>
       </c>
+      <c r="V132" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W132" t="n">
+        <v>2720</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -11723,6 +12781,14 @@
       <c r="U133" t="n">
         <v>19716</v>
       </c>
+      <c r="V133" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W133" t="n">
+        <v>1675.86</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -11808,6 +12874,14 @@
       <c r="U134" t="n">
         <v>38137</v>
       </c>
+      <c r="V134" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W134" t="n">
+        <v>3241.645</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -11891,6 +12965,14 @@
       <c r="U135" t="n">
         <v>0</v>
       </c>
+      <c r="V135" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -11976,6 +13058,14 @@
       <c r="U136" t="n">
         <v>19176</v>
       </c>
+      <c r="V136" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W136" t="n">
+        <v>1629.96</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -12061,6 +13151,14 @@
       <c r="U137" t="n">
         <v>0</v>
       </c>
+      <c r="V137" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -12146,6 +13244,14 @@
       <c r="U138" t="n">
         <v>21231</v>
       </c>
+      <c r="V138" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W138" t="n">
+        <v>1804.635</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -12231,6 +13337,14 @@
       <c r="U139" t="n">
         <v>18376</v>
       </c>
+      <c r="V139" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W139" t="n">
+        <v>1561.96</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -12316,6 +13430,14 @@
       <c r="U140" t="n">
         <v>21458</v>
       </c>
+      <c r="V140" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W140" t="n">
+        <v>1823.93</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -12401,6 +13523,14 @@
       <c r="U141" t="n">
         <v>25937</v>
       </c>
+      <c r="V141" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W141" t="n">
+        <v>2204.645</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -12486,6 +13616,14 @@
       <c r="U142" t="n">
         <v>21329</v>
       </c>
+      <c r="V142" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W142" t="n">
+        <v>1812.965</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -12571,6 +13709,14 @@
       <c r="U143" t="n">
         <v>0</v>
       </c>
+      <c r="V143" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -12656,6 +13802,14 @@
       <c r="U144" t="n">
         <v>1600</v>
       </c>
+      <c r="V144" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W144" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -12741,6 +13895,14 @@
       <c r="U145" t="n">
         <v>66304</v>
       </c>
+      <c r="V145" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W145" t="n">
+        <v>5635.84</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -12826,6 +13988,14 @@
       <c r="U146" t="n">
         <v>20483</v>
       </c>
+      <c r="V146" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W146" t="n">
+        <v>1741.055</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -12911,6 +14081,14 @@
       <c r="U147" t="n">
         <v>21244</v>
       </c>
+      <c r="V147" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W147" t="n">
+        <v>1805.74</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -12996,6 +14174,14 @@
       <c r="U148" t="n">
         <v>40010</v>
       </c>
+      <c r="V148" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W148" t="n">
+        <v>3400.85</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -13081,6 +14267,14 @@
       <c r="U149" t="n">
         <v>19196</v>
       </c>
+      <c r="V149" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W149" t="n">
+        <v>1631.66</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -13166,6 +14360,14 @@
       <c r="U150" t="n">
         <v>38613</v>
       </c>
+      <c r="V150" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W150" t="n">
+        <v>3282.105</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -13251,6 +14453,14 @@
       <c r="U151" t="n">
         <v>20962</v>
       </c>
+      <c r="V151" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W151" t="n">
+        <v>1781.77</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -13336,6 +14546,14 @@
       <c r="U152" t="n">
         <v>0</v>
       </c>
+      <c r="V152" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -13421,6 +14639,14 @@
       <c r="U153" t="n">
         <v>9532</v>
       </c>
+      <c r="V153" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W153" t="n">
+        <v>810.22</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -13506,6 +14732,14 @@
       <c r="U154" t="n">
         <v>0</v>
       </c>
+      <c r="V154" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -13591,6 +14825,14 @@
       <c r="U155" t="n">
         <v>27517</v>
       </c>
+      <c r="V155" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W155" t="n">
+        <v>2338.945</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -13676,6 +14918,14 @@
       <c r="U156" t="n">
         <v>0</v>
       </c>
+      <c r="V156" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -13761,6 +15011,14 @@
       <c r="U157" t="n">
         <v>15923</v>
       </c>
+      <c r="V157" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W157" t="n">
+        <v>1353.455</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -13844,6 +15102,14 @@
       <c r="U158" t="n">
         <v>0</v>
       </c>
+      <c r="V158" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -13927,6 +15193,14 @@
       <c r="U159" t="n">
         <v>0</v>
       </c>
+      <c r="V159" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -14012,6 +15286,14 @@
       <c r="U160" t="n">
         <v>24971</v>
       </c>
+      <c r="V160" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W160" t="n">
+        <v>2122.535</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -14097,6 +15379,14 @@
       <c r="U161" t="n">
         <v>19069</v>
       </c>
+      <c r="V161" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W161" t="n">
+        <v>1620.865</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -14180,6 +15470,14 @@
       <c r="U162" t="n">
         <v>0</v>
       </c>
+      <c r="V162" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -14265,6 +15563,14 @@
       <c r="U163" t="n">
         <v>15716</v>
       </c>
+      <c r="V163" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W163" t="n">
+        <v>1335.86</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -14350,6 +15656,14 @@
       <c r="U164" t="n">
         <v>16581</v>
       </c>
+      <c r="V164" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W164" t="n">
+        <v>1409.385</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -14435,6 +15749,14 @@
       <c r="U165" t="n">
         <v>15182</v>
       </c>
+      <c r="V165" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W165" t="n">
+        <v>1290.47</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -14520,6 +15842,14 @@
       <c r="U166" t="n">
         <v>0</v>
       </c>
+      <c r="V166" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -14605,6 +15935,14 @@
       <c r="U167" t="n">
         <v>14848</v>
       </c>
+      <c r="V167" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W167" t="n">
+        <v>1262.08</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -14690,6 +16028,14 @@
       <c r="U168" t="n">
         <v>0</v>
       </c>
+      <c r="V168" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -14775,6 +16121,14 @@
       <c r="U169" t="n">
         <v>15997</v>
       </c>
+      <c r="V169" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W169" t="n">
+        <v>1359.745</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -14860,6 +16214,14 @@
       <c r="U170" t="n">
         <v>38086</v>
       </c>
+      <c r="V170" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W170" t="n">
+        <v>3237.31</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -14945,6 +16307,14 @@
       <c r="U171" t="n">
         <v>30820</v>
       </c>
+      <c r="V171" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W171" t="n">
+        <v>2619.7</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -15030,6 +16400,14 @@
       <c r="U172" t="n">
         <v>14810</v>
       </c>
+      <c r="V172" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W172" t="n">
+        <v>1258.85</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -15115,6 +16493,14 @@
       <c r="U173" t="n">
         <v>16058</v>
       </c>
+      <c r="V173" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W173" t="n">
+        <v>1364.93</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -15200,6 +16586,14 @@
       <c r="U174" t="n">
         <v>13994</v>
       </c>
+      <c r="V174" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W174" t="n">
+        <v>1189.49</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -15285,6 +16679,14 @@
       <c r="U175" t="n">
         <v>15739</v>
       </c>
+      <c r="V175" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W175" t="n">
+        <v>1337.815</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -15368,6 +16770,14 @@
       <c r="U176" t="n">
         <v>0</v>
       </c>
+      <c r="V176" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -15453,6 +16863,14 @@
       <c r="U177" t="n">
         <v>30454</v>
       </c>
+      <c r="V177" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W177" t="n">
+        <v>2588.59</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -15538,6 +16956,14 @@
       <c r="U178" t="n">
         <v>28285</v>
       </c>
+      <c r="V178" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W178" t="n">
+        <v>2404.225</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -15623,6 +17049,14 @@
       <c r="U179" t="n">
         <v>21148</v>
       </c>
+      <c r="V179" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W179" t="n">
+        <v>1797.58</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -15708,6 +17142,14 @@
       <c r="U180" t="n">
         <v>30252</v>
       </c>
+      <c r="V180" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W180" t="n">
+        <v>2571.42</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -15793,6 +17235,14 @@
       <c r="U181" t="n">
         <v>0</v>
       </c>
+      <c r="V181" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -15878,6 +17328,14 @@
       <c r="U182" t="n">
         <v>11874</v>
       </c>
+      <c r="V182" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W182" t="n">
+        <v>1009.29</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -15963,6 +17421,14 @@
       <c r="U183" t="n">
         <v>17525</v>
       </c>
+      <c r="V183" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W183" t="n">
+        <v>1489.625</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -16048,6 +17514,14 @@
       <c r="U184" t="n">
         <v>18284</v>
       </c>
+      <c r="V184" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W184" t="n">
+        <v>1554.14</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -16133,6 +17607,14 @@
       <c r="U185" t="n">
         <v>11283</v>
       </c>
+      <c r="V185" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W185" t="n">
+        <v>959.0549999999999</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -16218,6 +17700,14 @@
       <c r="U186" t="n">
         <v>39084</v>
       </c>
+      <c r="V186" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W186" t="n">
+        <v>3322.14</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -16303,6 +17793,14 @@
       <c r="U187" t="n">
         <v>13942</v>
       </c>
+      <c r="V187" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W187" t="n">
+        <v>1185.07</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -16388,6 +17886,14 @@
       <c r="U188" t="n">
         <v>12798</v>
       </c>
+      <c r="V188" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W188" t="n">
+        <v>1087.83</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -16473,6 +17979,14 @@
       <c r="U189" t="n">
         <v>20798</v>
       </c>
+      <c r="V189" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W189" t="n">
+        <v>1767.83</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -16558,6 +18072,14 @@
       <c r="U190" t="n">
         <v>23860</v>
       </c>
+      <c r="V190" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W190" t="n">
+        <v>2028.1</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -16643,6 +18165,14 @@
       <c r="U191" t="n">
         <v>21053</v>
       </c>
+      <c r="V191" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W191" t="n">
+        <v>1789.505</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -16728,6 +18258,14 @@
       <c r="U192" t="n">
         <v>12798</v>
       </c>
+      <c r="V192" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W192" t="n">
+        <v>1087.83</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -16811,6 +18349,14 @@
       <c r="U193" t="n">
         <v>0</v>
       </c>
+      <c r="V193" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -16896,6 +18442,14 @@
       <c r="U194" t="n">
         <v>13765</v>
       </c>
+      <c r="V194" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W194" t="n">
+        <v>1170.025</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -16979,6 +18533,14 @@
       <c r="U195" t="n">
         <v>0</v>
       </c>
+      <c r="V195" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -17064,6 +18626,14 @@
       <c r="U196" t="n">
         <v>28307</v>
       </c>
+      <c r="V196" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W196" t="n">
+        <v>2406.095</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -17149,6 +18719,14 @@
       <c r="U197" t="n">
         <v>11570</v>
       </c>
+      <c r="V197" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W197" t="n">
+        <v>983.45</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -17234,6 +18812,14 @@
       <c r="U198" t="n">
         <v>2599</v>
       </c>
+      <c r="V198" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W198" t="n">
+        <v>220.915</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -17319,6 +18905,14 @@
       <c r="U199" t="n">
         <v>17405</v>
       </c>
+      <c r="V199" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W199" t="n">
+        <v>1479.425</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -17404,6 +18998,14 @@
       <c r="U200" t="n">
         <v>11705</v>
       </c>
+      <c r="V200" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W200" t="n">
+        <v>994.925</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -17489,6 +19091,14 @@
       <c r="U201" t="n">
         <v>17225</v>
       </c>
+      <c r="V201" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W201" t="n">
+        <v>1464.125</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -17574,6 +19184,14 @@
       <c r="U202" t="n">
         <v>0</v>
       </c>
+      <c r="V202" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -17659,6 +19277,14 @@
       <c r="U203" t="n">
         <v>0</v>
       </c>
+      <c r="V203" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -17744,6 +19370,14 @@
       <c r="U204" t="n">
         <v>10556</v>
       </c>
+      <c r="V204" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W204" t="n">
+        <v>897.26</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -17829,6 +19463,14 @@
       <c r="U205" t="n">
         <v>11362</v>
       </c>
+      <c r="V205" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W205" t="n">
+        <v>965.77</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -17914,6 +19556,14 @@
       <c r="U206" t="n">
         <v>15500</v>
       </c>
+      <c r="V206" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W206" t="n">
+        <v>1317.5</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -17999,6 +19649,14 @@
       <c r="U207" t="n">
         <v>10999</v>
       </c>
+      <c r="V207" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W207" t="n">
+        <v>934.915</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -18084,6 +19742,14 @@
       <c r="U208" t="n">
         <v>900</v>
       </c>
+      <c r="V208" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W208" t="n">
+        <v>76.5</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -18169,6 +19835,14 @@
       <c r="U209" t="n">
         <v>19545</v>
       </c>
+      <c r="V209" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W209" t="n">
+        <v>1661.325</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -18254,6 +19928,14 @@
       <c r="U210" t="n">
         <v>11412</v>
       </c>
+      <c r="V210" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W210" t="n">
+        <v>970.02</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -18339,6 +20021,14 @@
       <c r="U211" t="n">
         <v>19297</v>
       </c>
+      <c r="V211" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W211" t="n">
+        <v>1640.245</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -18424,6 +20114,14 @@
       <c r="U212" t="n">
         <v>0</v>
       </c>
+      <c r="V212" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W212" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -18507,6 +20205,14 @@
       <c r="U213" t="n">
         <v>0</v>
       </c>
+      <c r="V213" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -18592,6 +20298,14 @@
       <c r="U214" t="n">
         <v>9651</v>
       </c>
+      <c r="V214" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W214" t="n">
+        <v>820.335</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -18677,6 +20391,14 @@
       <c r="U215" t="n">
         <v>11021</v>
       </c>
+      <c r="V215" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W215" t="n">
+        <v>936.785</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -18762,6 +20484,14 @@
       <c r="U216" t="n">
         <v>9884</v>
       </c>
+      <c r="V216" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W216" t="n">
+        <v>840.14</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -18847,6 +20577,14 @@
       <c r="U217" t="n">
         <v>11104</v>
       </c>
+      <c r="V217" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W217" t="n">
+        <v>943.84</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -18932,6 +20670,14 @@
       <c r="U218" t="n">
         <v>20370</v>
       </c>
+      <c r="V218" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W218" t="n">
+        <v>1731.45</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -19017,6 +20763,14 @@
       <c r="U219" t="n">
         <v>9322</v>
       </c>
+      <c r="V219" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W219" t="n">
+        <v>792.37</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -19102,6 +20856,14 @@
       <c r="U220" t="n">
         <v>17698</v>
       </c>
+      <c r="V220" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W220" t="n">
+        <v>1504.33</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -19187,6 +20949,14 @@
       <c r="U221" t="n">
         <v>21609</v>
       </c>
+      <c r="V221" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W221" t="n">
+        <v>1836.765</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -19272,6 +21042,14 @@
       <c r="U222" t="n">
         <v>15989</v>
       </c>
+      <c r="V222" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W222" t="n">
+        <v>1359.065</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -19357,6 +21135,14 @@
       <c r="U223" t="n">
         <v>0</v>
       </c>
+      <c r="V223" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -19442,6 +21228,14 @@
       <c r="U224" t="n">
         <v>29979</v>
       </c>
+      <c r="V224" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W224" t="n">
+        <v>2548.215</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -19527,6 +21321,14 @@
       <c r="U225" t="n">
         <v>21997</v>
       </c>
+      <c r="V225" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W225" t="n">
+        <v>1869.745</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -19612,6 +21414,14 @@
       <c r="U226" t="n">
         <v>9910</v>
       </c>
+      <c r="V226" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W226" t="n">
+        <v>842.35</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -19697,6 +21507,14 @@
       <c r="U227" t="n">
         <v>17208</v>
       </c>
+      <c r="V227" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W227" t="n">
+        <v>1462.68</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -19782,6 +21600,14 @@
       <c r="U228" t="n">
         <v>23500</v>
       </c>
+      <c r="V228" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W228" t="n">
+        <v>1997.5</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -19867,6 +21693,14 @@
       <c r="U229" t="n">
         <v>0</v>
       </c>
+      <c r="V229" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -19952,6 +21786,14 @@
       <c r="U230" t="n">
         <v>9549</v>
       </c>
+      <c r="V230" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W230" t="n">
+        <v>811.665</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -20037,6 +21879,14 @@
       <c r="U231" t="n">
         <v>0</v>
       </c>
+      <c r="V231" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -20122,6 +21972,14 @@
       <c r="U232" t="n">
         <v>13999</v>
       </c>
+      <c r="V232" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W232" t="n">
+        <v>1189.915</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -20207,6 +22065,14 @@
       <c r="U233" t="n">
         <v>9534</v>
       </c>
+      <c r="V233" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W233" t="n">
+        <v>810.39</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -20292,6 +22158,14 @@
       <c r="U234" t="n">
         <v>0</v>
       </c>
+      <c r="V234" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W234" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -20377,6 +22251,14 @@
       <c r="U235" t="n">
         <v>14001</v>
       </c>
+      <c r="V235" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W235" t="n">
+        <v>1190.085</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -20462,6 +22344,14 @@
       <c r="U236" t="n">
         <v>13348</v>
       </c>
+      <c r="V236" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W236" t="n">
+        <v>1134.58</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -20547,6 +22437,14 @@
       <c r="U237" t="n">
         <v>8783</v>
       </c>
+      <c r="V237" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W237" t="n">
+        <v>746.5549999999999</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -20632,6 +22530,14 @@
       <c r="U238" t="n">
         <v>21500</v>
       </c>
+      <c r="V238" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="W238" t="n">
+        <v>860</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -20717,6 +22623,14 @@
       <c r="U239" t="n">
         <v>0</v>
       </c>
+      <c r="V239" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -20802,6 +22716,14 @@
       <c r="U240" t="n">
         <v>7155</v>
       </c>
+      <c r="V240" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W240" t="n">
+        <v>608.175</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -20887,6 +22809,14 @@
       <c r="U241" t="n">
         <v>0</v>
       </c>
+      <c r="V241" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W241" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -20972,6 +22902,14 @@
       <c r="U242" t="n">
         <v>0</v>
       </c>
+      <c r="V242" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W242" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -21057,6 +22995,14 @@
       <c r="U243" t="n">
         <v>38326</v>
       </c>
+      <c r="V243" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W243" t="n">
+        <v>3257.71</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -21142,6 +23088,14 @@
       <c r="U244" t="n">
         <v>22257</v>
       </c>
+      <c r="V244" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W244" t="n">
+        <v>1891.845</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -21227,6 +23181,14 @@
       <c r="U245" t="n">
         <v>12000</v>
       </c>
+      <c r="V245" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W245" t="n">
+        <v>1020</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -21312,6 +23274,14 @@
       <c r="U246" t="n">
         <v>6497</v>
       </c>
+      <c r="V246" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W246" t="n">
+        <v>552.245</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -21397,6 +23367,14 @@
       <c r="U247" t="n">
         <v>11697</v>
       </c>
+      <c r="V247" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W247" t="n">
+        <v>994.245</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -21482,6 +23460,14 @@
       <c r="U248" t="n">
         <v>11130</v>
       </c>
+      <c r="V248" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W248" t="n">
+        <v>946.05</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -21567,6 +23553,14 @@
       <c r="U249" t="n">
         <v>0</v>
       </c>
+      <c r="V249" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -21652,6 +23646,14 @@
       <c r="U250" t="n">
         <v>5308</v>
       </c>
+      <c r="V250" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W250" t="n">
+        <v>451.18</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -21737,6 +23739,14 @@
       <c r="U251" t="n">
         <v>0</v>
       </c>
+      <c r="V251" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W251" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -21822,6 +23832,14 @@
       <c r="U252" t="n">
         <v>0</v>
       </c>
+      <c r="V252" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W252" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -21907,6 +23925,14 @@
       <c r="U253" t="n">
         <v>10920</v>
       </c>
+      <c r="V253" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W253" t="n">
+        <v>928.2</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -21990,6 +24016,14 @@
       <c r="U254" t="n">
         <v>0</v>
       </c>
+      <c r="V254" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W254" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -22075,6 +24109,14 @@
       <c r="U255" t="n">
         <v>0</v>
       </c>
+      <c r="V255" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W255" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -22160,6 +24202,14 @@
       <c r="U256" t="n">
         <v>10477</v>
       </c>
+      <c r="V256" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W256" t="n">
+        <v>890.545</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -22245,6 +24295,14 @@
       <c r="U257" t="n">
         <v>0</v>
       </c>
+      <c r="V257" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -22330,6 +24388,14 @@
       <c r="U258" t="n">
         <v>0</v>
       </c>
+      <c r="V258" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W258" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -22413,6 +24479,14 @@
       <c r="U259" t="n">
         <v>0</v>
       </c>
+      <c r="V259" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W259" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -22498,6 +24572,14 @@
       <c r="U260" t="n">
         <v>11471</v>
       </c>
+      <c r="V260" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W260" t="n">
+        <v>975.035</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -22583,6 +24665,14 @@
       <c r="U261" t="n">
         <v>5683</v>
       </c>
+      <c r="V261" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W261" t="n">
+        <v>483.055</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -22668,6 +24758,14 @@
       <c r="U262" t="n">
         <v>300001</v>
       </c>
+      <c r="V262" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="W262" t="n">
+        <v>12000.04</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -22753,6 +24851,14 @@
       <c r="U263" t="n">
         <v>7998</v>
       </c>
+      <c r="V263" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W263" t="n">
+        <v>679.83</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -22838,6 +24944,14 @@
       <c r="U264" t="n">
         <v>13750</v>
       </c>
+      <c r="V264" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W264" t="n">
+        <v>1168.75</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -22921,6 +25035,14 @@
       <c r="U265" t="n">
         <v>0</v>
       </c>
+      <c r="V265" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W265" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -23006,6 +25128,14 @@
       <c r="U266" t="n">
         <v>2050</v>
       </c>
+      <c r="V266" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W266" t="n">
+        <v>174.25</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -23091,6 +25221,14 @@
       <c r="U267" t="n">
         <v>13121</v>
       </c>
+      <c r="V267" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W267" t="n">
+        <v>1115.285</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -23176,6 +25314,14 @@
       <c r="U268" t="n">
         <v>0</v>
       </c>
+      <c r="V268" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -23259,6 +25405,14 @@
       <c r="U269" t="n">
         <v>0</v>
       </c>
+      <c r="V269" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -23344,6 +25498,14 @@
       <c r="U270" t="n">
         <v>1165</v>
       </c>
+      <c r="V270" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W270" t="n">
+        <v>99.02500000000001</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -23429,6 +25591,14 @@
       <c r="U271" t="n">
         <v>1669</v>
       </c>
+      <c r="V271" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W271" t="n">
+        <v>141.865</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -23514,6 +25684,14 @@
       <c r="U272" t="n">
         <v>1837</v>
       </c>
+      <c r="V272" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W272" t="n">
+        <v>156.145</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -23597,6 +25775,14 @@
       <c r="U273" t="n">
         <v>0</v>
       </c>
+      <c r="V273" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -23680,6 +25866,14 @@
       <c r="U274" t="n">
         <v>0</v>
       </c>
+      <c r="V274" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -23763,6 +25957,14 @@
       <c r="U275" t="n">
         <v>0</v>
       </c>
+      <c r="V275" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W275" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -23846,6 +26048,14 @@
       <c r="U276" t="n">
         <v>0</v>
       </c>
+      <c r="V276" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -23929,6 +26139,14 @@
       <c r="U277" t="n">
         <v>0</v>
       </c>
+      <c r="V277" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W277" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -24012,6 +26230,14 @@
       <c r="U278" t="n">
         <v>0</v>
       </c>
+      <c r="V278" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W278" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -24095,6 +26321,14 @@
       <c r="U279" t="n">
         <v>0</v>
       </c>
+      <c r="V279" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -24178,6 +26412,14 @@
       <c r="U280" t="n">
         <v>0</v>
       </c>
+      <c r="V280" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -24261,6 +26503,14 @@
       <c r="U281" t="n">
         <v>0</v>
       </c>
+      <c r="V281" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W281" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -24344,6 +26594,14 @@
       <c r="U282" t="n">
         <v>0</v>
       </c>
+      <c r="V282" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -24427,6 +26685,14 @@
       <c r="U283" t="n">
         <v>0</v>
       </c>
+      <c r="V283" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W283" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -24510,6 +26776,14 @@
       <c r="U284" t="n">
         <v>0</v>
       </c>
+      <c r="V284" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W284" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -24593,6 +26867,14 @@
       <c r="U285" t="n">
         <v>0</v>
       </c>
+      <c r="V285" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -24676,6 +26958,14 @@
       <c r="U286" t="n">
         <v>0</v>
       </c>
+      <c r="V286" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W286" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -24759,6 +27049,14 @@
       <c r="U287" t="n">
         <v>0</v>
       </c>
+      <c r="V287" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -24842,6 +27140,14 @@
       <c r="U288" t="n">
         <v>0</v>
       </c>
+      <c r="V288" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W288" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -24925,6 +27231,14 @@
       <c r="U289" t="n">
         <v>0</v>
       </c>
+      <c r="V289" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -25008,6 +27322,14 @@
       <c r="U290" t="n">
         <v>0</v>
       </c>
+      <c r="V290" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -25091,6 +27413,14 @@
       <c r="U291" t="n">
         <v>0</v>
       </c>
+      <c r="V291" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W291" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -25174,6 +27504,14 @@
       <c r="U292" t="n">
         <v>0</v>
       </c>
+      <c r="V292" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -25257,6 +27595,14 @@
       <c r="U293" t="n">
         <v>0</v>
       </c>
+      <c r="V293" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W293" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -25340,6 +27686,14 @@
       <c r="U294" t="n">
         <v>0</v>
       </c>
+      <c r="V294" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W294" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -25423,6 +27777,14 @@
       <c r="U295" t="n">
         <v>0</v>
       </c>
+      <c r="V295" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W295" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -25506,6 +27868,14 @@
       <c r="U296" t="n">
         <v>0</v>
       </c>
+      <c r="V296" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W296" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -25589,6 +27959,14 @@
       <c r="U297" t="n">
         <v>0</v>
       </c>
+      <c r="V297" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W297" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -25672,6 +28050,14 @@
       <c r="U298" t="n">
         <v>0</v>
       </c>
+      <c r="V298" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W298" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -25757,6 +28143,14 @@
       <c r="U299" t="n">
         <v>436564</v>
       </c>
+      <c r="V299" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W299" t="n">
+        <v>5500</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -25842,6 +28236,14 @@
       <c r="U300" t="n">
         <v>83363</v>
       </c>
+      <c r="V300" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W300" t="n">
+        <v>5500</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -25927,6 +28329,14 @@
       <c r="U301" t="n">
         <v>27321</v>
       </c>
+      <c r="V301" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W301" t="n">
+        <v>4098.15</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -26012,6 +28422,14 @@
       <c r="U302" t="n">
         <v>37286</v>
       </c>
+      <c r="V302" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W302" t="n">
+        <v>5500</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -26097,6 +28515,14 @@
       <c r="U303" t="n">
         <v>33657</v>
       </c>
+      <c r="V303" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W303" t="n">
+        <v>5048.55</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -26182,6 +28608,14 @@
       <c r="U304" t="n">
         <v>35888</v>
       </c>
+      <c r="V304" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W304" t="n">
+        <v>5383.2</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -26267,6 +28701,14 @@
       <c r="U305" t="n">
         <v>34060</v>
       </c>
+      <c r="V305" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W305" t="n">
+        <v>5109</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -26352,6 +28794,14 @@
       <c r="U306" t="n">
         <v>25705</v>
       </c>
+      <c r="V306" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W306" t="n">
+        <v>3855.75</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -26437,6 +28887,14 @@
       <c r="U307" t="n">
         <v>34390</v>
       </c>
+      <c r="V307" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W307" t="n">
+        <v>5158.5</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -26520,6 +28978,14 @@
       <c r="U308" t="n">
         <v>0</v>
       </c>
+      <c r="V308" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W308" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -26605,6 +29071,14 @@
       <c r="U309" t="n">
         <v>32572</v>
       </c>
+      <c r="V309" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W309" t="n">
+        <v>4885.8</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -26688,6 +29162,14 @@
       <c r="U310" t="n">
         <v>0</v>
       </c>
+      <c r="V310" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -26773,6 +29255,14 @@
       <c r="U311" t="n">
         <v>16834</v>
       </c>
+      <c r="V311" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W311" t="n">
+        <v>2525.1</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -26858,6 +29348,14 @@
       <c r="U312" t="n">
         <v>0</v>
       </c>
+      <c r="V312" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W312" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -26943,6 +29441,14 @@
       <c r="U313" t="n">
         <v>0</v>
       </c>
+      <c r="V313" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W313" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -27028,6 +29534,14 @@
       <c r="U314" t="n">
         <v>22188</v>
       </c>
+      <c r="V314" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W314" t="n">
+        <v>3328.2</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -27113,6 +29627,14 @@
       <c r="U315" t="n">
         <v>8435</v>
       </c>
+      <c r="V315" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W315" t="n">
+        <v>1265.25</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -27198,6 +29720,14 @@
       <c r="U316" t="n">
         <v>35046</v>
       </c>
+      <c r="V316" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W316" t="n">
+        <v>5256.9</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -27283,6 +29813,14 @@
       <c r="U317" t="n">
         <v>20584</v>
       </c>
+      <c r="V317" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W317" t="n">
+        <v>3087.6</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -27368,6 +29906,14 @@
       <c r="U318" t="n">
         <v>22547</v>
       </c>
+      <c r="V318" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W318" t="n">
+        <v>3382.05</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -27453,6 +29999,14 @@
       <c r="U319" t="n">
         <v>19830</v>
       </c>
+      <c r="V319" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W319" t="n">
+        <v>2974.5</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -27536,6 +30090,14 @@
       <c r="U320" t="n">
         <v>0</v>
       </c>
+      <c r="V320" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W320" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -27619,6 +30181,14 @@
       <c r="U321" t="n">
         <v>0</v>
       </c>
+      <c r="V321" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W321" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -27704,6 +30274,14 @@
       <c r="U322" t="n">
         <v>4679</v>
       </c>
+      <c r="V322" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W322" t="n">
+        <v>701.85</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -27789,6 +30367,14 @@
       <c r="U323" t="n">
         <v>0</v>
       </c>
+      <c r="V323" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W323" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -27874,6 +30460,14 @@
       <c r="U324" t="n">
         <v>8158</v>
       </c>
+      <c r="V324" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W324" t="n">
+        <v>1223.7</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -27959,6 +30553,14 @@
       <c r="U325" t="n">
         <v>12659</v>
       </c>
+      <c r="V325" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W325" t="n">
+        <v>1898.85</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -28044,6 +30646,14 @@
       <c r="U326" t="n">
         <v>6445</v>
       </c>
+      <c r="V326" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W326" t="n">
+        <v>966.75</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -28129,6 +30739,14 @@
       <c r="U327" t="n">
         <v>65325</v>
       </c>
+      <c r="V327" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W327" t="n">
+        <v>5500</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -28214,6 +30832,14 @@
       <c r="U328" t="n">
         <v>14441</v>
       </c>
+      <c r="V328" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W328" t="n">
+        <v>2166.15</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -28299,6 +30925,14 @@
       <c r="U329" t="n">
         <v>68732</v>
       </c>
+      <c r="V329" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W329" t="n">
+        <v>5500</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -28384,6 +31018,14 @@
       <c r="U330" t="n">
         <v>11418</v>
       </c>
+      <c r="V330" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W330" t="n">
+        <v>1712.7</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -28469,6 +31111,14 @@
       <c r="U331" t="n">
         <v>46205</v>
       </c>
+      <c r="V331" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W331" t="n">
+        <v>5500</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -28554,6 +31204,14 @@
       <c r="U332" t="n">
         <v>31976</v>
       </c>
+      <c r="V332" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W332" t="n">
+        <v>4796.4</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -28639,6 +31297,14 @@
       <c r="U333" t="n">
         <v>49962</v>
       </c>
+      <c r="V333" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W333" t="n">
+        <v>5500</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -28724,6 +31390,14 @@
       <c r="U334" t="n">
         <v>25412</v>
       </c>
+      <c r="V334" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W334" t="n">
+        <v>3811.8</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -28809,6 +31483,14 @@
       <c r="U335" t="n">
         <v>27461</v>
       </c>
+      <c r="V335" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W335" t="n">
+        <v>4119.15</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -28894,6 +31576,14 @@
       <c r="U336" t="n">
         <v>5585</v>
       </c>
+      <c r="V336" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W336" t="n">
+        <v>837.75</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -28979,6 +31669,14 @@
       <c r="U337" t="n">
         <v>56271</v>
       </c>
+      <c r="V337" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W337" t="n">
+        <v>5500</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -29064,6 +31762,14 @@
       <c r="U338" t="n">
         <v>29028</v>
       </c>
+      <c r="V338" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W338" t="n">
+        <v>4354.2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -29149,6 +31855,14 @@
       <c r="U339" t="n">
         <v>25905</v>
       </c>
+      <c r="V339" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W339" t="n">
+        <v>3885.75</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -29232,6 +31946,14 @@
       <c r="U340" t="n">
         <v>0</v>
       </c>
+      <c r="V340" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W340" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -29317,6 +32039,14 @@
       <c r="U341" t="n">
         <v>33308</v>
       </c>
+      <c r="V341" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W341" t="n">
+        <v>4996.2</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -29402,6 +32132,14 @@
       <c r="U342" t="n">
         <v>39975</v>
       </c>
+      <c r="V342" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W342" t="n">
+        <v>5500</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -29487,6 +32225,14 @@
       <c r="U343" t="n">
         <v>14582</v>
       </c>
+      <c r="V343" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W343" t="n">
+        <v>2187.3</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -29572,6 +32318,14 @@
       <c r="U344" t="n">
         <v>15748</v>
       </c>
+      <c r="V344" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W344" t="n">
+        <v>2362.2</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -29657,6 +32411,14 @@
       <c r="U345" t="n">
         <v>17075</v>
       </c>
+      <c r="V345" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W345" t="n">
+        <v>2561.25</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -29742,6 +32504,14 @@
       <c r="U346" t="n">
         <v>25599</v>
       </c>
+      <c r="V346" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W346" t="n">
+        <v>3839.85</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -29827,6 +32597,14 @@
       <c r="U347" t="n">
         <v>6078</v>
       </c>
+      <c r="V347" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W347" t="n">
+        <v>911.7</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -29912,6 +32690,14 @@
       <c r="U348" t="n">
         <v>9851</v>
       </c>
+      <c r="V348" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W348" t="n">
+        <v>1477.65</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -29997,6 +32783,14 @@
       <c r="U349" t="n">
         <v>20807</v>
       </c>
+      <c r="V349" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W349" t="n">
+        <v>3121.05</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -30082,6 +32876,14 @@
       <c r="U350" t="n">
         <v>9244</v>
       </c>
+      <c r="V350" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W350" t="n">
+        <v>1386.6</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -30167,6 +32969,14 @@
       <c r="U351" t="n">
         <v>8901</v>
       </c>
+      <c r="V351" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W351" t="n">
+        <v>1335.15</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -30252,6 +33062,14 @@
       <c r="U352" t="n">
         <v>20344</v>
       </c>
+      <c r="V352" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W352" t="n">
+        <v>3051.6</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -30337,6 +33155,14 @@
       <c r="U353" t="n">
         <v>3844</v>
       </c>
+      <c r="V353" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W353" t="n">
+        <v>576.6</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -30422,6 +33248,14 @@
       <c r="U354" t="n">
         <v>310391</v>
       </c>
+      <c r="V354" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W354" t="n">
+        <v>5500</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -30507,6 +33341,14 @@
       <c r="U355" t="n">
         <v>14391</v>
       </c>
+      <c r="V355" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W355" t="n">
+        <v>2158.65</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -30592,6 +33434,14 @@
       <c r="U356" t="n">
         <v>60748</v>
       </c>
+      <c r="V356" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W356" t="n">
+        <v>5500</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -30677,6 +33527,14 @@
       <c r="U357" t="n">
         <v>49753</v>
       </c>
+      <c r="V357" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W357" t="n">
+        <v>5500</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -30762,6 +33620,14 @@
       <c r="U358" t="n">
         <v>10044</v>
       </c>
+      <c r="V358" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W358" t="n">
+        <v>1506.6</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -30847,6 +33713,14 @@
       <c r="U359" t="n">
         <v>43456</v>
       </c>
+      <c r="V359" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W359" t="n">
+        <v>5500</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -30932,6 +33806,14 @@
       <c r="U360" t="n">
         <v>9145</v>
       </c>
+      <c r="V360" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W360" t="n">
+        <v>1371.75</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -31017,6 +33899,14 @@
       <c r="U361" t="n">
         <v>6402</v>
       </c>
+      <c r="V361" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W361" t="n">
+        <v>960.3</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -31102,6 +33992,14 @@
       <c r="U362" t="n">
         <v>25062</v>
       </c>
+      <c r="V362" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W362" t="n">
+        <v>3759.3</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -31187,6 +34085,14 @@
       <c r="U363" t="n">
         <v>22689</v>
       </c>
+      <c r="V363" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W363" t="n">
+        <v>3403.35</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -31272,6 +34178,14 @@
       <c r="U364" t="n">
         <v>29050</v>
       </c>
+      <c r="V364" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W364" t="n">
+        <v>4357.5</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -31357,6 +34271,14 @@
       <c r="U365" t="n">
         <v>6107</v>
       </c>
+      <c r="V365" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W365" t="n">
+        <v>916.05</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -31442,6 +34364,14 @@
       <c r="U366" t="n">
         <v>19579</v>
       </c>
+      <c r="V366" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W366" t="n">
+        <v>1664.215</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -31527,6 +34457,14 @@
       <c r="U367" t="n">
         <v>11776</v>
       </c>
+      <c r="V367" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W367" t="n">
+        <v>1766.4</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -31612,6 +34550,14 @@
       <c r="U368" t="n">
         <v>224341</v>
       </c>
+      <c r="V368" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W368" t="n">
+        <v>5500</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -31697,6 +34643,14 @@
       <c r="U369" t="n">
         <v>66993</v>
       </c>
+      <c r="V369" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W369" t="n">
+        <v>5500</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -31782,6 +34736,14 @@
       <c r="U370" t="n">
         <v>46567</v>
       </c>
+      <c r="V370" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W370" t="n">
+        <v>5500</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -31867,6 +34829,14 @@
       <c r="U371" t="n">
         <v>9848</v>
       </c>
+      <c r="V371" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W371" t="n">
+        <v>1477.2</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -31952,6 +34922,14 @@
       <c r="U372" t="n">
         <v>56051</v>
       </c>
+      <c r="V372" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W372" t="n">
+        <v>5500</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -32037,6 +35015,14 @@
       <c r="U373" t="n">
         <v>76138</v>
       </c>
+      <c r="V373" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W373" t="n">
+        <v>5500</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -32122,6 +35108,14 @@
       <c r="U374" t="n">
         <v>72955</v>
       </c>
+      <c r="V374" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W374" t="n">
+        <v>5500</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -32207,6 +35201,14 @@
       <c r="U375" t="n">
         <v>39053</v>
       </c>
+      <c r="V375" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W375" t="n">
+        <v>5500</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -32292,6 +35294,14 @@
       <c r="U376" t="n">
         <v>63162</v>
       </c>
+      <c r="V376" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W376" t="n">
+        <v>5500</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -32377,6 +35387,14 @@
       <c r="U377" t="n">
         <v>56198</v>
       </c>
+      <c r="V377" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W377" t="n">
+        <v>5500</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -32462,6 +35480,14 @@
       <c r="U378" t="n">
         <v>32700</v>
       </c>
+      <c r="V378" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W378" t="n">
+        <v>4905</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -32547,6 +35573,14 @@
       <c r="U379" t="n">
         <v>38601</v>
       </c>
+      <c r="V379" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W379" t="n">
+        <v>5500</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -32632,6 +35666,14 @@
       <c r="U380" t="n">
         <v>44462</v>
       </c>
+      <c r="V380" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W380" t="n">
+        <v>5500</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -32717,6 +35759,14 @@
       <c r="U381" t="n">
         <v>28951</v>
       </c>
+      <c r="V381" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W381" t="n">
+        <v>4342.65</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -32800,6 +35850,14 @@
       <c r="U382" t="n">
         <v>0</v>
       </c>
+      <c r="V382" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W382" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -32885,6 +35943,14 @@
       <c r="U383" t="n">
         <v>27262</v>
       </c>
+      <c r="V383" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W383" t="n">
+        <v>4089.3</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -32970,6 +36036,14 @@
       <c r="U384" t="n">
         <v>26992</v>
       </c>
+      <c r="V384" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W384" t="n">
+        <v>4048.8</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -33055,6 +36129,14 @@
       <c r="U385" t="n">
         <v>33480</v>
       </c>
+      <c r="V385" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W385" t="n">
+        <v>5022</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -33140,6 +36222,14 @@
       <c r="U386" t="n">
         <v>0</v>
       </c>
+      <c r="V386" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W386" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -33225,6 +36315,14 @@
       <c r="U387" t="n">
         <v>6425</v>
       </c>
+      <c r="V387" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W387" t="n">
+        <v>963.75</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -33310,6 +36408,14 @@
       <c r="U388" t="n">
         <v>32537</v>
       </c>
+      <c r="V388" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W388" t="n">
+        <v>4880.55</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -33395,6 +36501,14 @@
       <c r="U389" t="n">
         <v>16307</v>
       </c>
+      <c r="V389" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W389" t="n">
+        <v>2446.05</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -33480,6 +36594,14 @@
       <c r="U390" t="n">
         <v>33979</v>
       </c>
+      <c r="V390" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W390" t="n">
+        <v>5096.85</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -33565,6 +36687,14 @@
       <c r="U391" t="n">
         <v>26852</v>
       </c>
+      <c r="V391" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W391" t="n">
+        <v>4027.8</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -33650,6 +36780,14 @@
       <c r="U392" t="n">
         <v>39146</v>
       </c>
+      <c r="V392" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W392" t="n">
+        <v>5500</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -33735,6 +36873,14 @@
       <c r="U393" t="n">
         <v>17624</v>
       </c>
+      <c r="V393" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W393" t="n">
+        <v>2643.6</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -33818,6 +36964,14 @@
       <c r="U394" t="n">
         <v>0</v>
       </c>
+      <c r="V394" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W394" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -33901,6 +37055,14 @@
       <c r="U395" t="n">
         <v>0</v>
       </c>
+      <c r="V395" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W395" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -33986,6 +37148,14 @@
       <c r="U396" t="n">
         <v>16130</v>
       </c>
+      <c r="V396" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W396" t="n">
+        <v>2419.5</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -34071,6 +37241,14 @@
       <c r="U397" t="n">
         <v>19619</v>
       </c>
+      <c r="V397" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W397" t="n">
+        <v>2942.85</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -34156,6 +37334,14 @@
       <c r="U398" t="n">
         <v>16390</v>
       </c>
+      <c r="V398" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W398" t="n">
+        <v>2458.5</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -34241,6 +37427,14 @@
       <c r="U399" t="n">
         <v>18970</v>
       </c>
+      <c r="V399" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W399" t="n">
+        <v>2845.5</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -34324,6 +37518,14 @@
       <c r="U400" t="n">
         <v>0</v>
       </c>
+      <c r="V400" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W400" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -34409,6 +37611,14 @@
       <c r="U401" t="n">
         <v>13387</v>
       </c>
+      <c r="V401" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W401" t="n">
+        <v>2008.05</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -34492,6 +37702,14 @@
       <c r="U402" t="n">
         <v>0</v>
       </c>
+      <c r="V402" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W402" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -34577,6 +37795,14 @@
       <c r="U403" t="n">
         <v>33172</v>
       </c>
+      <c r="V403" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W403" t="n">
+        <v>4975.8</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -34662,6 +37888,14 @@
       <c r="U404" t="n">
         <v>18936</v>
       </c>
+      <c r="V404" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W404" t="n">
+        <v>2840.4</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -34747,6 +37981,14 @@
       <c r="U405" t="n">
         <v>18746</v>
       </c>
+      <c r="V405" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W405" t="n">
+        <v>2811.9</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -34832,6 +38074,14 @@
       <c r="U406" t="n">
         <v>2152</v>
       </c>
+      <c r="V406" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W406" t="n">
+        <v>322.8</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -34917,6 +38167,14 @@
       <c r="U407" t="n">
         <v>30222</v>
       </c>
+      <c r="V407" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W407" t="n">
+        <v>4533.3</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -35002,6 +38260,14 @@
       <c r="U408" t="n">
         <v>25368</v>
       </c>
+      <c r="V408" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W408" t="n">
+        <v>3805.2</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -35087,6 +38353,14 @@
       <c r="U409" t="n">
         <v>25487</v>
       </c>
+      <c r="V409" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W409" t="n">
+        <v>3823.05</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -35170,6 +38444,14 @@
       <c r="U410" t="n">
         <v>0</v>
       </c>
+      <c r="V410" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W410" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -35255,6 +38537,14 @@
       <c r="U411" t="n">
         <v>0</v>
       </c>
+      <c r="V411" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W411" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -35340,6 +38630,14 @@
       <c r="U412" t="n">
         <v>12958</v>
       </c>
+      <c r="V412" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W412" t="n">
+        <v>1943.7</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -35425,6 +38723,14 @@
       <c r="U413" t="n">
         <v>12387</v>
       </c>
+      <c r="V413" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W413" t="n">
+        <v>1858.05</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -35510,6 +38816,14 @@
       <c r="U414" t="n">
         <v>13634</v>
       </c>
+      <c r="V414" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W414" t="n">
+        <v>2045.1</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -35595,6 +38909,14 @@
       <c r="U415" t="n">
         <v>12264</v>
       </c>
+      <c r="V415" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W415" t="n">
+        <v>1839.6</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -35680,6 +39002,14 @@
       <c r="U416" t="n">
         <v>10583</v>
       </c>
+      <c r="V416" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W416" t="n">
+        <v>1587.45</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -35765,6 +39095,14 @@
       <c r="U417" t="n">
         <v>12132</v>
       </c>
+      <c r="V417" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W417" t="n">
+        <v>1819.8</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -35848,6 +39186,14 @@
       <c r="U418" t="n">
         <v>0</v>
       </c>
+      <c r="V418" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W418" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -35933,6 +39279,14 @@
       <c r="U419" t="n">
         <v>28869</v>
       </c>
+      <c r="V419" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W419" t="n">
+        <v>4330.35</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -36018,6 +39372,14 @@
       <c r="U420" t="n">
         <v>10131</v>
       </c>
+      <c r="V420" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W420" t="n">
+        <v>1519.65</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -36103,6 +39465,14 @@
       <c r="U421" t="n">
         <v>10322</v>
       </c>
+      <c r="V421" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W421" t="n">
+        <v>1548.3</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -36188,6 +39558,14 @@
       <c r="U422" t="n">
         <v>9322</v>
       </c>
+      <c r="V422" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W422" t="n">
+        <v>1398.3</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -36273,6 +39651,14 @@
       <c r="U423" t="n">
         <v>15293</v>
       </c>
+      <c r="V423" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W423" t="n">
+        <v>2293.95</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
@@ -36356,6 +39742,14 @@
       <c r="U424" t="n">
         <v>0</v>
       </c>
+      <c r="V424" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W424" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -36441,6 +39835,14 @@
       <c r="U425" t="n">
         <v>14783</v>
       </c>
+      <c r="V425" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W425" t="n">
+        <v>2217.45</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -36526,6 +39928,14 @@
       <c r="U426" t="n">
         <v>10545</v>
       </c>
+      <c r="V426" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W426" t="n">
+        <v>1581.75</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -36611,6 +40021,14 @@
       <c r="U427" t="n">
         <v>11734</v>
       </c>
+      <c r="V427" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W427" t="n">
+        <v>1760.1</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -36696,6 +40114,14 @@
       <c r="U428" t="n">
         <v>7243</v>
       </c>
+      <c r="V428" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W428" t="n">
+        <v>1086.45</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -36781,6 +40207,14 @@
       <c r="U429" t="n">
         <v>17570</v>
       </c>
+      <c r="V429" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W429" t="n">
+        <v>2635.5</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
@@ -36866,6 +40300,14 @@
       <c r="U430" t="n">
         <v>12595</v>
       </c>
+      <c r="V430" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W430" t="n">
+        <v>1889.25</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -36951,6 +40393,14 @@
       <c r="U431" t="n">
         <v>3673</v>
       </c>
+      <c r="V431" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W431" t="n">
+        <v>550.95</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -37034,6 +40484,14 @@
       <c r="U432" t="n">
         <v>0</v>
       </c>
+      <c r="V432" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W432" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -37117,6 +40575,14 @@
       <c r="U433" t="n">
         <v>0</v>
       </c>
+      <c r="V433" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W433" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -37202,6 +40668,14 @@
       <c r="U434" t="n">
         <v>6899</v>
       </c>
+      <c r="V434" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W434" t="n">
+        <v>1034.85</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -37287,6 +40761,14 @@
       <c r="U435" t="n">
         <v>2424</v>
       </c>
+      <c r="V435" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="W435" t="n">
+        <v>363.6</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -37372,6 +40854,14 @@
       <c r="U436" t="n">
         <v>33033</v>
       </c>
+      <c r="V436" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W436" t="n">
+        <v>2807.805</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -37457,6 +40947,14 @@
       <c r="U437" t="n">
         <v>11283</v>
       </c>
+      <c r="V437" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W437" t="n">
+        <v>959.0549999999999</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -37542,6 +41040,14 @@
       <c r="U438" t="n">
         <v>29979</v>
       </c>
+      <c r="V438" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W438" t="n">
+        <v>2548.215</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -37627,6 +41133,14 @@
       <c r="U439" t="n">
         <v>36987</v>
       </c>
+      <c r="V439" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W439" t="n">
+        <v>3143.895</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -37712,6 +41226,14 @@
       <c r="U440" t="n">
         <v>33152</v>
       </c>
+      <c r="V440" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W440" t="n">
+        <v>2817.92</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
@@ -37797,6 +41319,14 @@
       <c r="U441" t="n">
         <v>17325</v>
       </c>
+      <c r="V441" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W441" t="n">
+        <v>1472.625</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -37880,6 +41410,14 @@
       <c r="U442" t="n">
         <v>0</v>
       </c>
+      <c r="V442" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W442" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -37965,6 +41503,14 @@
       <c r="U443" t="n">
         <v>29961</v>
       </c>
+      <c r="V443" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W443" t="n">
+        <v>2546.685</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
@@ -38050,6 +41596,14 @@
       <c r="U444" t="n">
         <v>39037</v>
       </c>
+      <c r="V444" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W444" t="n">
+        <v>3318.145</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
@@ -38135,6 +41689,14 @@
       <c r="U445" t="n">
         <v>7051</v>
       </c>
+      <c r="V445" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W445" t="n">
+        <v>599.335</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
@@ -38220,6 +41782,14 @@
       <c r="U446" t="n">
         <v>17900</v>
       </c>
+      <c r="V446" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W446" t="n">
+        <v>1521.5</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -38305,6 +41875,14 @@
       <c r="U447" t="n">
         <v>31089</v>
       </c>
+      <c r="V447" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W447" t="n">
+        <v>2642.565</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
@@ -38388,6 +41966,14 @@
       <c r="U448" t="n">
         <v>0</v>
       </c>
+      <c r="V448" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W448" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
@@ -38473,6 +42059,14 @@
       <c r="U449" t="n">
         <v>21963</v>
       </c>
+      <c r="V449" t="inlineStr">
+        <is>
+          <t>8.5%</t>
+        </is>
+      </c>
+      <c r="W449" t="n">
+        <v>1866.855</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
@@ -38556,6 +42150,14 @@
       <c r="U450" t="n">
         <v>0</v>
       </c>
+      <c r="V450" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W450" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -38639,6 +42241,14 @@
       <c r="U451" t="n">
         <v>0</v>
       </c>
+      <c r="V451" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W451" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
@@ -38722,6 +42332,14 @@
       <c r="U452" t="n">
         <v>0</v>
       </c>
+      <c r="V452" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W452" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
@@ -38805,6 +42423,14 @@
       <c r="U453" t="n">
         <v>0</v>
       </c>
+      <c r="V453" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W453" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -38886,6 +42512,14 @@
       </c>
       <c r="T454" t="inlineStr"/>
       <c r="U454" t="n">
+        <v>0</v>
+      </c>
+      <c r="V454" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W454" t="n">
         <v>0</v>
       </c>
     </row>
